--- a/Jogos_do_Dia/2024-04-23_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-04-23_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -163,15 +163,15 @@
     <t>Belgium Pro League</t>
   </si>
   <si>
+    <t>England EFL League Two</t>
+  </si>
+  <si>
+    <t>England EFL League One</t>
+  </si>
+  <si>
     <t>France Ligue 2</t>
   </si>
   <si>
-    <t>England EFL League Two</t>
-  </si>
-  <si>
-    <t>England EFL League One</t>
-  </si>
-  <si>
     <t>England Championship</t>
   </si>
   <si>
@@ -223,21 +223,21 @@
     <t>Botoşani</t>
   </si>
   <si>
+    <t>Al Ahly</t>
+  </si>
+  <si>
     <t>Degerfors</t>
   </si>
   <si>
     <t>Pharco</t>
   </si>
   <si>
-    <t>Al Ahly</t>
+    <t>Bellinzona</t>
   </si>
   <si>
     <t>Neuchâtel Xamax</t>
   </si>
   <si>
-    <t>Bellinzona</t>
-  </si>
-  <si>
     <t>Baden</t>
   </si>
   <si>
@@ -253,48 +253,48 @@
     <t>Standard Liège</t>
   </si>
   <si>
+    <t>Barrow</t>
+  </si>
+  <si>
+    <t>Colchester United</t>
+  </si>
+  <si>
+    <t>Cambridge United</t>
+  </si>
+  <si>
+    <t>Cheltenham Town</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Bordeaux</t>
+  </si>
+  <si>
+    <t>Bastia</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
     <t>Caen</t>
   </si>
   <si>
-    <t>Barrow</t>
-  </si>
-  <si>
-    <t>Colchester United</t>
-  </si>
-  <si>
-    <t>Cambridge United</t>
-  </si>
-  <si>
-    <t>Cheltenham Town</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Bordeaux</t>
-  </si>
-  <si>
-    <t>Bastia</t>
+    <t>Quevilly Rouen</t>
+  </si>
+  <si>
+    <t>Rodez</t>
+  </si>
+  <si>
+    <t>Valenciennes</t>
+  </si>
+  <si>
+    <t>Grenoble Foot 38</t>
   </si>
   <si>
     <t>Guingamp</t>
   </si>
   <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Grenoble Foot 38</t>
-  </si>
-  <si>
-    <t>Quevilly Rouen</t>
-  </si>
-  <si>
-    <t>Rodez</t>
-  </si>
-  <si>
-    <t>Valenciennes</t>
-  </si>
-  <si>
     <t>Leicester City</t>
   </si>
   <si>
@@ -319,21 +319,21 @@
     <t>Dinamo Bucureşti</t>
   </si>
   <si>
+    <t>Ceramica Cleopatra</t>
+  </si>
+  <si>
     <t>Helsingborg</t>
   </si>
   <si>
     <t>Al Masry</t>
   </si>
   <si>
-    <t>Ceramica Cleopatra</t>
+    <t>FC Schaffhausen</t>
   </si>
   <si>
     <t>Wil</t>
   </si>
   <si>
-    <t>FC Schaffhausen</t>
-  </si>
-  <si>
     <t>Aarau</t>
   </si>
   <si>
@@ -349,46 +349,46 @@
     <t>KV Mechelen</t>
   </si>
   <si>
+    <t>Bradford City</t>
+  </si>
+  <si>
+    <t>Doncaster Rovers</t>
+  </si>
+  <si>
+    <t>Wycombe Wanderers</t>
+  </si>
+  <si>
+    <t>Peterborough United</t>
+  </si>
+  <si>
+    <t>Laval</t>
+  </si>
+  <si>
+    <t>Dunkerque</t>
+  </si>
+  <si>
+    <t>Concarneau</t>
+  </si>
+  <si>
+    <t>Pau</t>
+  </si>
+  <si>
     <t>Annecy</t>
   </si>
   <si>
-    <t>Bradford City</t>
-  </si>
-  <si>
-    <t>Doncaster Rovers</t>
-  </si>
-  <si>
-    <t>Wycombe Wanderers</t>
-  </si>
-  <si>
-    <t>Peterborough United</t>
-  </si>
-  <si>
-    <t>Laval</t>
-  </si>
-  <si>
-    <t>Dunkerque</t>
-  </si>
-  <si>
-    <t>Concarneau</t>
+    <t>Amiens SC</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Saint-Étienne</t>
   </si>
   <si>
     <t>Angers SCO</t>
-  </si>
-  <si>
-    <t>Pau</t>
-  </si>
-  <si>
-    <t>Saint-Étienne</t>
-  </si>
-  <si>
-    <t>Amiens SC</t>
-  </si>
-  <si>
-    <t>Paris</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
   </si>
   <si>
     <t>Southampton</t>
@@ -916,22 +916,22 @@
         <v>96</v>
       </c>
       <c r="G2">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H2">
         <v>2.05</v>
       </c>
       <c r="I2">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J2">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="K2">
         <v>3.2</v>
       </c>
       <c r="L2">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M2">
         <v>1.45</v>
@@ -958,10 +958,10 @@
         <v>1.67</v>
       </c>
       <c r="U2">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V2">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W2">
         <v>1.18</v>
@@ -1056,13 +1056,13 @@
         <v>3.95</v>
       </c>
       <c r="J3">
-        <v>2.2</v>
+        <v>2.21</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>3.03</v>
       </c>
       <c r="L3">
-        <v>3.2</v>
+        <v>3.23</v>
       </c>
       <c r="M3">
         <v>1.43</v>
@@ -1086,7 +1086,7 @@
         <v>2.15</v>
       </c>
       <c r="T3">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="U3">
         <v>1.89</v>
@@ -1119,43 +1119,43 @@
         <v>2.6</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>3.08</v>
       </c>
       <c r="AJ3">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AK3">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>2.57</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>3.56</v>
       </c>
       <c r="AQ3">
-        <v>0</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="4" spans="1:43">
@@ -1187,13 +1187,13 @@
         <v>2.41</v>
       </c>
       <c r="J4">
-        <v>4.33</v>
+        <v>4.43</v>
       </c>
       <c r="K4">
-        <v>3.5</v>
+        <v>3.62</v>
       </c>
       <c r="L4">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="M4">
         <v>1.43</v>
@@ -1214,10 +1214,10 @@
         <v>2.98</v>
       </c>
       <c r="S4">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="T4">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="U4">
         <v>1.91</v>
@@ -1250,43 +1250,43 @@
         <v>2.25</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AK4">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="5" spans="1:43">
@@ -1318,13 +1318,13 @@
         <v>2.48</v>
       </c>
       <c r="J5">
-        <v>3.7</v>
+        <v>3.73</v>
       </c>
       <c r="K5">
         <v>3.62</v>
       </c>
       <c r="L5">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="M5">
         <v>1.37</v>
@@ -1381,43 +1381,43 @@
         <v>2.69</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>3.86</v>
       </c>
       <c r="AJ5">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AK5">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AN5">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="AO5">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AP5">
-        <v>0</v>
+        <v>2.84</v>
       </c>
       <c r="AQ5">
-        <v>0</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="6" spans="1:43">
@@ -1449,13 +1449,13 @@
         <v>3.5</v>
       </c>
       <c r="J6">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="K6">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>2.75</v>
+        <v>2.71</v>
       </c>
       <c r="M6">
         <v>1.45</v>
@@ -1476,10 +1476,10 @@
         <v>2.9</v>
       </c>
       <c r="S6">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="T6">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="U6">
         <v>1.95</v>
@@ -1512,48 +1512,48 @@
         <v>2.52</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="AJ6">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AK6">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="AL6">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="AM6">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AN6">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="AO6">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AP6">
-        <v>0</v>
+        <v>3.96</v>
       </c>
       <c r="AQ6">
-        <v>0</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="7" spans="1:43">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B7" s="2">
         <v>45405</v>
@@ -1562,7 +1562,7 @@
         <v>57</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
         <v>69</v>
@@ -1571,22 +1571,22 @@
         <v>101</v>
       </c>
       <c r="G7">
-        <v>2.4</v>
+        <v>2.88</v>
       </c>
       <c r="H7">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="I7">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="J7">
-        <v>1.73</v>
+        <v>2.25</v>
       </c>
       <c r="K7">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>4.33</v>
+        <v>3</v>
       </c>
       <c r="M7">
         <v>1.4</v>
@@ -1595,61 +1595,61 @@
         <v>2.75</v>
       </c>
       <c r="O7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="P7">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Q7">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="R7">
-        <v>3.25</v>
+        <v>3.44</v>
       </c>
       <c r="S7">
-        <v>2.04</v>
+        <v>1.9</v>
       </c>
       <c r="T7">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="U7">
-        <v>1.95</v>
+        <v>1.73</v>
       </c>
       <c r="V7">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W7">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="X7">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="Y7">
-        <v>2.05</v>
+        <v>1.53</v>
       </c>
       <c r="Z7">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AA7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AB7">
-        <v>2.19</v>
+        <v>1.69</v>
       </c>
       <c r="AC7">
-        <v>1.13</v>
+        <v>1.79</v>
       </c>
       <c r="AD7">
-        <v>3.32</v>
+        <v>3.48</v>
       </c>
       <c r="AE7">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="AG7">
-        <v>2.66</v>
+        <v>0</v>
       </c>
       <c r="AH7">
         <v>0</v>
@@ -1658,33 +1658,33 @@
         <v>0</v>
       </c>
       <c r="AJ7">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AK7">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="AL7">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="AM7">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="AN7">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="AO7">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="AP7">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="AQ7">
-        <v>1.49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:43">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B8" s="2">
         <v>45405</v>
@@ -1693,7 +1693,7 @@
         <v>57</v>
       </c>
       <c r="D8">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="E8" t="s">
         <v>70</v>
@@ -1702,115 +1702,115 @@
         <v>102</v>
       </c>
       <c r="G8">
-        <v>4.33</v>
+        <v>2.4</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8">
+        <v>1.78</v>
+      </c>
+      <c r="K8">
+        <v>3.55</v>
+      </c>
+      <c r="L8">
+        <v>4.25</v>
+      </c>
+      <c r="M8">
+        <v>1.4</v>
+      </c>
+      <c r="N8">
         <v>2.75</v>
       </c>
-      <c r="J8">
-        <v>3.5</v>
-      </c>
-      <c r="K8">
+      <c r="O8">
+        <v>1.05</v>
+      </c>
+      <c r="P8">
+        <v>10</v>
+      </c>
+      <c r="Q8">
+        <v>1.33</v>
+      </c>
+      <c r="R8">
         <v>3.25</v>
       </c>
-      <c r="L8">
-        <v>2</v>
-      </c>
-      <c r="M8">
-        <v>1.53</v>
-      </c>
-      <c r="N8">
-        <v>2.35</v>
-      </c>
-      <c r="O8">
-        <v>1.09</v>
-      </c>
-      <c r="P8">
-        <v>6.5</v>
-      </c>
-      <c r="Q8">
-        <v>1.45</v>
-      </c>
-      <c r="R8">
-        <v>2.6</v>
-      </c>
       <c r="S8">
-        <v>2.3</v>
+        <v>2.02</v>
       </c>
       <c r="T8">
-        <v>1.6</v>
+        <v>1.82</v>
       </c>
       <c r="U8">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="V8">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="W8">
-        <v>1.62</v>
+        <v>1.2</v>
       </c>
       <c r="X8">
+        <v>1.22</v>
+      </c>
+      <c r="Y8">
+        <v>2.05</v>
+      </c>
+      <c r="Z8">
+        <v>3</v>
+      </c>
+      <c r="AA8">
+        <v>3</v>
+      </c>
+      <c r="AB8">
+        <v>2.19</v>
+      </c>
+      <c r="AC8">
+        <v>1.13</v>
+      </c>
+      <c r="AD8">
+        <v>3.32</v>
+      </c>
+      <c r="AE8">
+        <v>1.64</v>
+      </c>
+      <c r="AF8">
+        <v>8.5</v>
+      </c>
+      <c r="AG8">
+        <v>2.66</v>
+      </c>
+      <c r="AH8">
+        <v>1.17</v>
+      </c>
+      <c r="AI8">
+        <v>4.5</v>
+      </c>
+      <c r="AJ8">
         <v>1.3</v>
       </c>
-      <c r="Y8">
-        <v>1.28</v>
-      </c>
-      <c r="Z8">
-        <v>0.86</v>
-      </c>
-      <c r="AA8">
-        <v>1.57</v>
-      </c>
-      <c r="AB8">
-        <v>1.46</v>
-      </c>
-      <c r="AC8">
-        <v>1.1</v>
-      </c>
-      <c r="AD8">
-        <v>2.56</v>
-      </c>
-      <c r="AE8">
-        <v>2.08</v>
-      </c>
-      <c r="AF8">
-        <v>8.1</v>
-      </c>
-      <c r="AG8">
+      <c r="AK8">
+        <v>3.3</v>
+      </c>
+      <c r="AL8">
+        <v>1.55</v>
+      </c>
+      <c r="AM8">
+        <v>2.38</v>
+      </c>
+      <c r="AN8">
         <v>1.95</v>
       </c>
-      <c r="AH8">
-        <v>1.35</v>
-      </c>
-      <c r="AI8">
-        <v>2.84</v>
-      </c>
-      <c r="AJ8">
-        <v>1.71</v>
-      </c>
-      <c r="AK8">
-        <v>2.12</v>
-      </c>
-      <c r="AL8">
-        <v>2.15</v>
-      </c>
-      <c r="AM8">
-        <v>1.69</v>
-      </c>
-      <c r="AN8">
-        <v>2.79</v>
-      </c>
       <c r="AO8">
-        <v>1.36</v>
+        <v>1.85</v>
       </c>
       <c r="AP8">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AQ8">
-        <v>0</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="9" spans="1:43">
@@ -1833,115 +1833,115 @@
         <v>103</v>
       </c>
       <c r="G9">
-        <v>2.88</v>
+        <v>4.75</v>
       </c>
       <c r="H9">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="J9">
-        <v>2.25</v>
+        <v>4</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="L9">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="M9">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="N9">
-        <v>2.75</v>
+        <v>2.35</v>
       </c>
       <c r="O9">
-        <v>1.02</v>
+        <v>1.09</v>
       </c>
       <c r="P9">
-        <v>8.800000000000001</v>
+        <v>6.5</v>
       </c>
       <c r="Q9">
-        <v>1.26</v>
+        <v>1.45</v>
       </c>
       <c r="R9">
-        <v>3.44</v>
+        <v>2.6</v>
       </c>
       <c r="S9">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="T9">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="U9">
-        <v>1.73</v>
+        <v>2.2</v>
       </c>
       <c r="V9">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="W9">
-        <v>1.3</v>
+        <v>1.62</v>
       </c>
       <c r="X9">
         <v>1.3</v>
       </c>
       <c r="Y9">
-        <v>1.53</v>
+        <v>1.28</v>
       </c>
       <c r="Z9">
-        <v>2.33</v>
+        <v>0.86</v>
       </c>
       <c r="AA9">
-        <v>1</v>
+        <v>1.57</v>
       </c>
       <c r="AB9">
+        <v>1.46</v>
+      </c>
+      <c r="AC9">
+        <v>1.1</v>
+      </c>
+      <c r="AD9">
+        <v>2.56</v>
+      </c>
+      <c r="AE9">
+        <v>2.08</v>
+      </c>
+      <c r="AF9">
+        <v>8.1</v>
+      </c>
+      <c r="AG9">
+        <v>1.95</v>
+      </c>
+      <c r="AH9">
+        <v>1.35</v>
+      </c>
+      <c r="AI9">
+        <v>2.84</v>
+      </c>
+      <c r="AJ9">
+        <v>1.71</v>
+      </c>
+      <c r="AK9">
+        <v>2.12</v>
+      </c>
+      <c r="AL9">
+        <v>2.15</v>
+      </c>
+      <c r="AM9">
         <v>1.69</v>
       </c>
-      <c r="AC9">
-        <v>1.79</v>
-      </c>
-      <c r="AD9">
-        <v>3.48</v>
-      </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
-      <c r="AF9">
-        <v>0</v>
-      </c>
-      <c r="AG9">
-        <v>0</v>
-      </c>
-      <c r="AH9">
-        <v>0</v>
-      </c>
-      <c r="AI9">
-        <v>0</v>
-      </c>
-      <c r="AJ9">
-        <v>0</v>
-      </c>
-      <c r="AK9">
-        <v>0</v>
-      </c>
-      <c r="AL9">
-        <v>0</v>
-      </c>
-      <c r="AM9">
-        <v>0</v>
-      </c>
       <c r="AN9">
-        <v>0</v>
+        <v>2.79</v>
       </c>
       <c r="AO9">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AP9">
-        <v>0</v>
+        <v>3.68</v>
       </c>
       <c r="AQ9">
-        <v>0</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="10" spans="1:43">
@@ -1964,115 +1964,115 @@
         <v>104</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="J10">
+        <v>2.41</v>
+      </c>
+      <c r="K10">
+        <v>3.23</v>
+      </c>
+      <c r="L10">
+        <v>2.81</v>
+      </c>
+      <c r="M10">
+        <v>1.45</v>
+      </c>
+      <c r="N10">
+        <v>2.6</v>
+      </c>
+      <c r="O10">
+        <v>1.05</v>
+      </c>
+      <c r="P10">
+        <v>7.45</v>
+      </c>
+      <c r="Q10">
+        <v>1.32</v>
+      </c>
+      <c r="R10">
+        <v>3.13</v>
+      </c>
+      <c r="S10">
+        <v>1.91</v>
+      </c>
+      <c r="T10">
+        <v>1.79</v>
+      </c>
+      <c r="U10">
+        <v>1.8</v>
+      </c>
+      <c r="V10">
+        <v>1.91</v>
+      </c>
+      <c r="W10">
+        <v>1.42</v>
+      </c>
+      <c r="X10">
+        <v>1.3</v>
+      </c>
+      <c r="Y10">
+        <v>1.45</v>
+      </c>
+      <c r="Z10">
+        <v>1.29</v>
+      </c>
+      <c r="AA10">
+        <v>0.86</v>
+      </c>
+      <c r="AB10">
+        <v>1.6</v>
+      </c>
+      <c r="AC10">
+        <v>1.08</v>
+      </c>
+      <c r="AD10">
+        <v>2.68</v>
+      </c>
+      <c r="AE10">
+        <v>1.9</v>
+      </c>
+      <c r="AF10">
+        <v>8.5</v>
+      </c>
+      <c r="AG10">
         <v>2.11</v>
       </c>
-      <c r="K10">
-        <v>3.45</v>
-      </c>
-      <c r="L10">
-        <v>3.15</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>1.85</v>
-      </c>
-      <c r="T10">
-        <v>1.93</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <v>1.6</v>
-      </c>
-      <c r="AA10">
-        <v>0.93</v>
-      </c>
-      <c r="AB10">
-        <v>1.37</v>
-      </c>
-      <c r="AC10">
-        <v>1.47</v>
-      </c>
-      <c r="AD10">
-        <v>2.84</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
       <c r="AH10">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="AJ10">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AK10">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="AL10">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="AM10">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AN10">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AO10">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AP10">
-        <v>0</v>
+        <v>3.08</v>
       </c>
       <c r="AQ10">
-        <v>0</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="11" spans="1:43">
@@ -2095,115 +2095,115 @@
         <v>105</v>
       </c>
       <c r="G11">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="I11">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="J11">
-        <v>2.41</v>
+        <v>2.11</v>
       </c>
       <c r="K11">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="L11">
-        <v>2.8</v>
+        <v>3.15</v>
       </c>
       <c r="M11">
-        <v>1.45</v>
+        <v>1.34</v>
       </c>
       <c r="N11">
-        <v>2.6</v>
+        <v>3.18</v>
       </c>
       <c r="O11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="P11">
-        <v>7.45</v>
+        <v>10</v>
       </c>
       <c r="Q11">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="R11">
-        <v>3.13</v>
+        <v>3.6</v>
       </c>
       <c r="S11">
-        <v>1.95</v>
+        <v>1.81</v>
       </c>
       <c r="T11">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="U11">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="V11">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="W11">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="X11">
         <v>1.3</v>
       </c>
       <c r="Y11">
-        <v>1.45</v>
+        <v>1.7</v>
       </c>
       <c r="Z11">
-        <v>1.29</v>
+        <v>1.6</v>
       </c>
       <c r="AA11">
-        <v>0.86</v>
+        <v>0.93</v>
       </c>
       <c r="AB11">
-        <v>1.6</v>
+        <v>1.37</v>
       </c>
       <c r="AC11">
-        <v>1.08</v>
+        <v>1.47</v>
       </c>
       <c r="AD11">
-        <v>2.68</v>
+        <v>2.84</v>
       </c>
       <c r="AE11">
-        <v>1.9</v>
+        <v>1.69</v>
       </c>
       <c r="AF11">
-        <v>8.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AG11">
-        <v>2.11</v>
+        <v>2.43</v>
       </c>
       <c r="AH11">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AI11">
-        <v>3.48</v>
+        <v>3.65</v>
       </c>
       <c r="AJ11">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AK11">
-        <v>2.48</v>
+        <v>2.57</v>
       </c>
       <c r="AL11">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="AM11">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="AN11">
-        <v>2.3</v>
+        <v>2.21</v>
       </c>
       <c r="AO11">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="AP11">
-        <v>3.08</v>
+        <v>2.98</v>
       </c>
       <c r="AQ11">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="12" spans="1:43">
@@ -2226,19 +2226,19 @@
         <v>106</v>
       </c>
       <c r="G12">
-        <v>3.85</v>
+        <v>3.5</v>
       </c>
       <c r="H12">
-        <v>2.58</v>
+        <v>2.5</v>
       </c>
       <c r="I12">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="J12">
-        <v>3.4</v>
+        <v>3.42</v>
       </c>
       <c r="K12">
-        <v>3.9</v>
+        <v>3.92</v>
       </c>
       <c r="L12">
         <v>1.88</v>
@@ -2265,22 +2265,22 @@
         <v>1.43</v>
       </c>
       <c r="T12">
-        <v>2.55</v>
+        <v>2.62</v>
       </c>
       <c r="U12">
         <v>1.44</v>
       </c>
       <c r="V12">
-        <v>2.65</v>
+        <v>2.63</v>
       </c>
       <c r="W12">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="X12">
         <v>1.24</v>
       </c>
       <c r="Y12">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="Z12">
         <v>0.8</v>
@@ -2366,13 +2366,13 @@
         <v>3.74</v>
       </c>
       <c r="J13">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="L13">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="M13">
         <v>1.56</v>
@@ -2393,10 +2393,10 @@
         <v>2.48</v>
       </c>
       <c r="S13">
-        <v>2.37</v>
+        <v>2.5</v>
       </c>
       <c r="T13">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="U13">
         <v>2.05</v>
@@ -2429,43 +2429,43 @@
         <v>2.56</v>
       </c>
       <c r="AE13">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AF13">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="AG13">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="AH13">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AI13">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="AJ13">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AK13">
-        <v>0</v>
+        <v>2.49</v>
       </c>
       <c r="AL13">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="AM13">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AN13">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="AO13">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AP13">
-        <v>0</v>
+        <v>3.14</v>
       </c>
       <c r="AQ13">
-        <v>0</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="14" spans="1:43">
@@ -2497,13 +2497,13 @@
         <v>3.4</v>
       </c>
       <c r="J14">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="K14">
-        <v>3.6</v>
+        <v>3.67</v>
       </c>
       <c r="L14">
-        <v>3</v>
+        <v>2.97</v>
       </c>
       <c r="M14">
         <v>1.3</v>
@@ -2524,10 +2524,10 @@
         <v>4.2</v>
       </c>
       <c r="S14">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="T14">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="U14">
         <v>1.5</v>
@@ -2560,43 +2560,43 @@
         <v>2.69</v>
       </c>
       <c r="AE14">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AF14">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AG14">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="AH14">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AI14">
-        <v>0</v>
+        <v>4.85</v>
       </c>
       <c r="AJ14">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AK14">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AL14">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AM14">
-        <v>0</v>
+        <v>2.39</v>
       </c>
       <c r="AN14">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AO14">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="AP14">
-        <v>0</v>
+        <v>2.39</v>
       </c>
       <c r="AQ14">
-        <v>0</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="15" spans="1:43">
@@ -2628,13 +2628,13 @@
         <v>2.38</v>
       </c>
       <c r="J15">
-        <v>3.7</v>
+        <v>3.35</v>
       </c>
       <c r="K15">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="L15">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="M15">
         <v>1.33</v>
@@ -2655,10 +2655,10 @@
         <v>3.75</v>
       </c>
       <c r="S15">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="T15">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="U15">
         <v>1.67</v>
@@ -2691,43 +2691,43 @@
         <v>3.18</v>
       </c>
       <c r="AE15">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AF15">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AG15">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="AH15">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AI15">
-        <v>0</v>
+        <v>3.64</v>
       </c>
       <c r="AJ15">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AK15">
-        <v>0</v>
+        <v>2.57</v>
       </c>
       <c r="AL15">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="AM15">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="AN15">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AO15">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AP15">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="AQ15">
-        <v>0</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="16" spans="1:43">
@@ -2759,10 +2759,10 @@
         <v>3.4</v>
       </c>
       <c r="J16">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="K16">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L16">
         <v>2.8</v>
@@ -2786,10 +2786,10 @@
         <v>3.34</v>
       </c>
       <c r="S16">
-        <v>1.85</v>
+        <v>1.92</v>
       </c>
       <c r="T16">
-        <v>1.85</v>
+        <v>1.94</v>
       </c>
       <c r="U16">
         <v>1.71</v>
@@ -2822,43 +2822,43 @@
         <v>2.68</v>
       </c>
       <c r="AE16">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AF16">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG16">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AH16">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AI16">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="AJ16">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AK16">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AL16">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AM16">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="AN16">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AO16">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AP16">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AQ16">
-        <v>0</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="17" spans="1:43">
@@ -2872,7 +2872,7 @@
         <v>61</v>
       </c>
       <c r="D17">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E17" t="s">
         <v>79</v>
@@ -2881,120 +2881,120 @@
         <v>111</v>
       </c>
       <c r="G17">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="I17">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="J17">
-        <v>2.01</v>
+        <v>2.35</v>
       </c>
       <c r="K17">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="L17">
-        <v>3.8</v>
+        <v>2.85</v>
       </c>
       <c r="M17">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="N17">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="O17">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="P17">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="Q17">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="R17">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="S17">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="T17">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="U17">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="V17">
         <v>1.83</v>
       </c>
       <c r="W17">
+        <v>1.36</v>
+      </c>
+      <c r="X17">
         <v>1.3</v>
       </c>
-      <c r="X17">
-        <v>1.28</v>
-      </c>
       <c r="Y17">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="Z17">
+        <v>1.9</v>
+      </c>
+      <c r="AA17">
+        <v>1.41</v>
+      </c>
+      <c r="AB17">
+        <v>1.41</v>
+      </c>
+      <c r="AC17">
+        <v>1.41</v>
+      </c>
+      <c r="AD17">
+        <v>2.82</v>
+      </c>
+      <c r="AE17">
         <v>1.69</v>
       </c>
-      <c r="AA17">
-        <v>1.31</v>
-      </c>
-      <c r="AB17">
-        <v>1.4</v>
-      </c>
-      <c r="AC17">
-        <v>1.26</v>
-      </c>
-      <c r="AD17">
-        <v>2.66</v>
-      </c>
-      <c r="AE17">
-        <v>0</v>
-      </c>
       <c r="AF17">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG17">
-        <v>0</v>
+        <v>2.54</v>
       </c>
       <c r="AH17">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AI17">
-        <v>0</v>
+        <v>3.74</v>
       </c>
       <c r="AJ17">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AK17">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AL17">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AM17">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AN17">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="AO17">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AP17">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="AQ17">
-        <v>0</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="18" spans="1:43">
       <c r="A18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B18" s="2">
         <v>45405</v>
@@ -3003,7 +3003,7 @@
         <v>61</v>
       </c>
       <c r="D18">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E18" t="s">
         <v>80</v>
@@ -3012,115 +3012,115 @@
         <v>112</v>
       </c>
       <c r="G18">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="H18">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="I18">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="J18">
-        <v>2.23</v>
+        <v>2.85</v>
       </c>
       <c r="K18">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="L18">
-        <v>3.35</v>
+        <v>2.3</v>
       </c>
       <c r="M18">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="N18">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="O18">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="P18">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="Q18">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="R18">
-        <v>2.9</v>
+        <v>3.85</v>
       </c>
       <c r="S18">
-        <v>1.91</v>
+        <v>1.7</v>
       </c>
       <c r="T18">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="U18">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="V18">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="W18">
         <v>1.36</v>
       </c>
       <c r="X18">
+        <v>1.25</v>
+      </c>
+      <c r="Y18">
+        <v>1.65</v>
+      </c>
+      <c r="Z18">
+        <v>1.14</v>
+      </c>
+      <c r="AA18">
+        <v>1.1</v>
+      </c>
+      <c r="AB18">
+        <v>1.45</v>
+      </c>
+      <c r="AC18">
+        <v>1.21</v>
+      </c>
+      <c r="AD18">
+        <v>2.66</v>
+      </c>
+      <c r="AE18">
+        <v>1.71</v>
+      </c>
+      <c r="AF18">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AG18">
+        <v>2.48</v>
+      </c>
+      <c r="AH18">
+        <v>1.2</v>
+      </c>
+      <c r="AI18">
+        <v>4</v>
+      </c>
+      <c r="AJ18">
         <v>1.3</v>
       </c>
-      <c r="Y18">
-        <v>1.57</v>
-      </c>
-      <c r="Z18">
-        <v>1.9</v>
-      </c>
-      <c r="AA18">
-        <v>1.41</v>
-      </c>
-      <c r="AB18">
-        <v>1.41</v>
-      </c>
-      <c r="AC18">
-        <v>1.41</v>
-      </c>
-      <c r="AD18">
-        <v>2.82</v>
-      </c>
-      <c r="AE18">
-        <v>1.69</v>
-      </c>
-      <c r="AF18">
-        <v>8</v>
-      </c>
-      <c r="AG18">
-        <v>2.54</v>
-      </c>
-      <c r="AH18">
-        <v>1.21</v>
-      </c>
-      <c r="AI18">
-        <v>3.74</v>
-      </c>
-      <c r="AJ18">
-        <v>1.41</v>
-      </c>
       <c r="AK18">
-        <v>2.6</v>
+        <v>3.08</v>
       </c>
       <c r="AL18">
-        <v>1.85</v>
+        <v>1.53</v>
       </c>
       <c r="AM18">
-        <v>1.9</v>
+        <v>2.28</v>
       </c>
       <c r="AN18">
-        <v>2.18</v>
+        <v>1.92</v>
       </c>
       <c r="AO18">
-        <v>1.66</v>
+        <v>1.79</v>
       </c>
       <c r="AP18">
-        <v>2.93</v>
+        <v>2.45</v>
       </c>
       <c r="AQ18">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="19" spans="1:43">
@@ -3134,7 +3134,7 @@
         <v>61</v>
       </c>
       <c r="D19">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E19" t="s">
         <v>81</v>
@@ -3143,120 +3143,120 @@
         <v>113</v>
       </c>
       <c r="G19">
-        <v>2.88</v>
+        <v>3.5</v>
       </c>
       <c r="H19">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="I19">
         <v>3.5</v>
       </c>
       <c r="J19">
+        <v>2.75</v>
+      </c>
+      <c r="K19">
+        <v>2.95</v>
+      </c>
+      <c r="L19">
+        <v>2.4</v>
+      </c>
+      <c r="M19">
+        <v>1.53</v>
+      </c>
+      <c r="N19">
+        <v>2.38</v>
+      </c>
+      <c r="O19">
+        <v>1.1</v>
+      </c>
+      <c r="P19">
+        <v>6.5</v>
+      </c>
+      <c r="Q19">
+        <v>1.44</v>
+      </c>
+      <c r="R19">
         <v>2.65</v>
       </c>
-      <c r="K19">
-        <v>3.55</v>
-      </c>
-      <c r="L19">
-        <v>2.55</v>
-      </c>
-      <c r="M19">
+      <c r="S19">
+        <v>2.1</v>
+      </c>
+      <c r="T19">
+        <v>1.65</v>
+      </c>
+      <c r="U19">
+        <v>2</v>
+      </c>
+      <c r="V19">
+        <v>1.75</v>
+      </c>
+      <c r="W19">
+        <v>1.42</v>
+      </c>
+      <c r="X19">
+        <v>1.33</v>
+      </c>
+      <c r="Y19">
+        <v>1.48</v>
+      </c>
+      <c r="Z19">
         <v>1.36</v>
       </c>
-      <c r="N19">
-        <v>3</v>
-      </c>
-      <c r="O19">
-        <v>1.05</v>
-      </c>
-      <c r="P19">
-        <v>9.5</v>
-      </c>
-      <c r="Q19">
-        <v>1.25</v>
-      </c>
-      <c r="R19">
-        <v>3.85</v>
-      </c>
-      <c r="S19">
-        <v>1.6</v>
-      </c>
-      <c r="T19">
-        <v>1.98</v>
-      </c>
-      <c r="U19">
-        <v>1.67</v>
-      </c>
-      <c r="V19">
-        <v>2.1</v>
-      </c>
-      <c r="W19">
+      <c r="AA19">
         <v>1.36</v>
       </c>
-      <c r="X19">
-        <v>1.25</v>
-      </c>
-      <c r="Y19">
-        <v>1.65</v>
-      </c>
-      <c r="Z19">
-        <v>1.14</v>
-      </c>
-      <c r="AA19">
-        <v>1.1</v>
-      </c>
       <c r="AB19">
-        <v>1.45</v>
+        <v>1.16</v>
       </c>
       <c r="AC19">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AD19">
-        <v>2.66</v>
+        <v>2.32</v>
       </c>
       <c r="AE19">
-        <v>1.71</v>
+        <v>1.92</v>
       </c>
       <c r="AF19">
-        <v>9.300000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="AG19">
-        <v>2.48</v>
+        <v>2.16</v>
       </c>
       <c r="AH19">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AI19">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="AJ19">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="AK19">
-        <v>3.08</v>
+        <v>2.8</v>
       </c>
       <c r="AL19">
-        <v>1.53</v>
+        <v>1.68</v>
       </c>
       <c r="AM19">
-        <v>2.28</v>
+        <v>2.11</v>
       </c>
       <c r="AN19">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AO19">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="AP19">
-        <v>2.45</v>
+        <v>2.75</v>
       </c>
       <c r="AQ19">
-        <v>1.46</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="20" spans="1:43">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B20" s="2">
         <v>45405</v>
@@ -3274,115 +3274,115 @@
         <v>114</v>
       </c>
       <c r="G20">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H20">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="I20">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="J20">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="K20">
-        <v>3.05</v>
+        <v>3.65</v>
       </c>
       <c r="L20">
-        <v>3.05</v>
+        <v>2</v>
       </c>
       <c r="M20">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="N20">
-        <v>2.38</v>
+        <v>3.25</v>
       </c>
       <c r="O20">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="P20">
-        <v>6.5</v>
+        <v>11</v>
       </c>
       <c r="Q20">
-        <v>1.44</v>
+        <v>1.19</v>
       </c>
       <c r="R20">
-        <v>2.65</v>
+        <v>3.94</v>
       </c>
       <c r="S20">
-        <v>2.35</v>
+        <v>1.65</v>
       </c>
       <c r="T20">
-        <v>1.57</v>
+        <v>2.1</v>
       </c>
       <c r="U20">
+        <v>1.67</v>
+      </c>
+      <c r="V20">
+        <v>2.1</v>
+      </c>
+      <c r="W20">
+        <v>1.74</v>
+      </c>
+      <c r="X20">
+        <v>1.28</v>
+      </c>
+      <c r="Y20">
+        <v>1.34</v>
+      </c>
+      <c r="Z20">
+        <v>1</v>
+      </c>
+      <c r="AA20">
+        <v>1.82</v>
+      </c>
+      <c r="AB20">
+        <v>1.36</v>
+      </c>
+      <c r="AC20">
+        <v>1.58</v>
+      </c>
+      <c r="AD20">
+        <v>2.94</v>
+      </c>
+      <c r="AE20">
+        <v>2.56</v>
+      </c>
+      <c r="AF20">
+        <v>9.4</v>
+      </c>
+      <c r="AG20">
+        <v>1.7</v>
+      </c>
+      <c r="AH20">
+        <v>1.25</v>
+      </c>
+      <c r="AI20">
+        <v>3.6</v>
+      </c>
+      <c r="AJ20">
+        <v>1.35</v>
+      </c>
+      <c r="AK20">
+        <v>2.84</v>
+      </c>
+      <c r="AL20">
+        <v>1.74</v>
+      </c>
+      <c r="AM20">
         <v>2</v>
       </c>
-      <c r="V20">
-        <v>1.75</v>
-      </c>
-      <c r="W20">
-        <v>1.42</v>
-      </c>
-      <c r="X20">
-        <v>1.33</v>
-      </c>
-      <c r="Y20">
-        <v>1.48</v>
-      </c>
-      <c r="Z20">
-        <v>1.36</v>
-      </c>
-      <c r="AA20">
-        <v>1.36</v>
-      </c>
-      <c r="AB20">
-        <v>1.16</v>
-      </c>
-      <c r="AC20">
-        <v>1.16</v>
-      </c>
-      <c r="AD20">
-        <v>2.32</v>
-      </c>
-      <c r="AE20">
-        <v>0</v>
-      </c>
-      <c r="AF20">
-        <v>0</v>
-      </c>
-      <c r="AG20">
-        <v>0</v>
-      </c>
-      <c r="AH20">
-        <v>0</v>
-      </c>
-      <c r="AI20">
-        <v>0</v>
-      </c>
-      <c r="AJ20">
-        <v>0</v>
-      </c>
-      <c r="AK20">
-        <v>0</v>
-      </c>
-      <c r="AL20">
-        <v>0</v>
-      </c>
-      <c r="AM20">
-        <v>0</v>
-      </c>
       <c r="AN20">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="AO20">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AP20">
-        <v>0</v>
+        <v>2.69</v>
       </c>
       <c r="AQ20">
-        <v>0</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="21" spans="1:43">
@@ -3396,7 +3396,7 @@
         <v>61</v>
       </c>
       <c r="D21">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E21" t="s">
         <v>83</v>
@@ -3405,120 +3405,120 @@
         <v>115</v>
       </c>
       <c r="G21">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="H21">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="I21">
-        <v>2.75</v>
+        <v>6.25</v>
       </c>
       <c r="J21">
-        <v>2.87</v>
+        <v>1.58</v>
       </c>
       <c r="K21">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="L21">
-        <v>2.12</v>
+        <v>5.7</v>
       </c>
       <c r="M21">
-        <v>1.33</v>
+        <v>1.45</v>
       </c>
       <c r="N21">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="O21">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="P21">
-        <v>11</v>
+        <v>8.6</v>
       </c>
       <c r="Q21">
-        <v>1.19</v>
+        <v>1.37</v>
       </c>
       <c r="R21">
-        <v>3.94</v>
+        <v>3.11</v>
       </c>
       <c r="S21">
-        <v>1.65</v>
+        <v>2.11</v>
       </c>
       <c r="T21">
-        <v>2.2</v>
+        <v>1.74</v>
       </c>
       <c r="U21">
-        <v>1.67</v>
+        <v>2.15</v>
       </c>
       <c r="V21">
-        <v>2.1</v>
+        <v>1.62</v>
       </c>
       <c r="W21">
-        <v>1.74</v>
+        <v>1.15</v>
       </c>
       <c r="X21">
+        <v>1.25</v>
+      </c>
+      <c r="Y21">
+        <v>2.35</v>
+      </c>
+      <c r="Z21">
+        <v>2</v>
+      </c>
+      <c r="AA21">
+        <v>1.81</v>
+      </c>
+      <c r="AB21">
+        <v>1.69</v>
+      </c>
+      <c r="AC21">
         <v>1.28</v>
       </c>
-      <c r="Y21">
-        <v>1.34</v>
-      </c>
-      <c r="Z21">
-        <v>1</v>
-      </c>
-      <c r="AA21">
-        <v>1.82</v>
-      </c>
-      <c r="AB21">
-        <v>1.36</v>
-      </c>
-      <c r="AC21">
-        <v>1.58</v>
-      </c>
       <c r="AD21">
-        <v>2.94</v>
+        <v>2.97</v>
       </c>
       <c r="AE21">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AF21">
-        <v>0</v>
+        <v>10.7</v>
       </c>
       <c r="AG21">
-        <v>0</v>
+        <v>4.37</v>
       </c>
       <c r="AH21">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AI21">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="AJ21">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AK21">
-        <v>0</v>
+        <v>2.39</v>
       </c>
       <c r="AL21">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="AM21">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AN21">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="AO21">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AP21">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="AQ21">
-        <v>0</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="22" spans="1:43">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B22" s="2">
         <v>45405</v>
@@ -3536,120 +3536,120 @@
         <v>116</v>
       </c>
       <c r="G22">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="H22">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="I22">
-        <v>6.25</v>
+        <v>4.75</v>
       </c>
       <c r="J22">
-        <v>1.61</v>
+        <v>1.77</v>
       </c>
       <c r="K22">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="L22">
-        <v>5.25</v>
+        <v>4.1</v>
       </c>
       <c r="M22">
-        <v>1.45</v>
+        <v>1.36</v>
       </c>
       <c r="N22">
-        <v>2.6</v>
+        <v>2.85</v>
       </c>
       <c r="O22">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="P22">
-        <v>8.6</v>
+        <v>9.5</v>
       </c>
       <c r="Q22">
-        <v>1.37</v>
+        <v>1.28</v>
       </c>
       <c r="R22">
-        <v>3.11</v>
+        <v>3.67</v>
       </c>
       <c r="S22">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T22">
-        <v>1.73</v>
+        <v>1.93</v>
       </c>
       <c r="U22">
-        <v>2.15</v>
+        <v>1.77</v>
       </c>
       <c r="V22">
-        <v>1.62</v>
+        <v>1.9</v>
       </c>
       <c r="W22">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="X22">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="Y22">
-        <v>2.35</v>
+        <v>2.05</v>
       </c>
       <c r="Z22">
-        <v>2</v>
+        <v>1.63</v>
       </c>
       <c r="AA22">
-        <v>1.81</v>
+        <v>1.63</v>
       </c>
       <c r="AB22">
         <v>1.69</v>
       </c>
       <c r="AC22">
+        <v>1.22</v>
+      </c>
+      <c r="AD22">
+        <v>2.91</v>
+      </c>
+      <c r="AE22">
+        <v>1.46</v>
+      </c>
+      <c r="AF22">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AG22">
+        <v>3.36</v>
+      </c>
+      <c r="AH22">
+        <v>1.25</v>
+      </c>
+      <c r="AI22">
+        <v>3.42</v>
+      </c>
+      <c r="AJ22">
+        <v>1.49</v>
+      </c>
+      <c r="AK22">
+        <v>2.44</v>
+      </c>
+      <c r="AL22">
+        <v>1.87</v>
+      </c>
+      <c r="AM22">
+        <v>1.87</v>
+      </c>
+      <c r="AN22">
+        <v>2.39</v>
+      </c>
+      <c r="AO22">
+        <v>1.51</v>
+      </c>
+      <c r="AP22">
+        <v>3.2</v>
+      </c>
+      <c r="AQ22">
         <v>1.28</v>
-      </c>
-      <c r="AD22">
-        <v>2.97</v>
-      </c>
-      <c r="AE22">
-        <v>0</v>
-      </c>
-      <c r="AF22">
-        <v>0</v>
-      </c>
-      <c r="AG22">
-        <v>0</v>
-      </c>
-      <c r="AH22">
-        <v>0</v>
-      </c>
-      <c r="AI22">
-        <v>0</v>
-      </c>
-      <c r="AJ22">
-        <v>0</v>
-      </c>
-      <c r="AK22">
-        <v>0</v>
-      </c>
-      <c r="AL22">
-        <v>0</v>
-      </c>
-      <c r="AM22">
-        <v>0</v>
-      </c>
-      <c r="AN22">
-        <v>0</v>
-      </c>
-      <c r="AO22">
-        <v>0</v>
-      </c>
-      <c r="AP22">
-        <v>0</v>
-      </c>
-      <c r="AQ22">
-        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:43">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B23" s="2">
         <v>45405</v>
@@ -3667,120 +3667,120 @@
         <v>117</v>
       </c>
       <c r="G23">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="H23">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="I23">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="J23">
-        <v>1.68</v>
+        <v>2.07</v>
       </c>
       <c r="K23">
-        <v>3.8</v>
+        <v>3.15</v>
       </c>
       <c r="L23">
-        <v>4.6</v>
+        <v>3.45</v>
       </c>
       <c r="M23">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="N23">
-        <v>2.85</v>
+        <v>2.62</v>
       </c>
       <c r="O23">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="P23">
-        <v>9.5</v>
+        <v>7.6</v>
       </c>
       <c r="Q23">
+        <v>1.39</v>
+      </c>
+      <c r="R23">
+        <v>2.99</v>
+      </c>
+      <c r="S23">
+        <v>2.19</v>
+      </c>
+      <c r="T23">
+        <v>1.6</v>
+      </c>
+      <c r="U23">
+        <v>1.91</v>
+      </c>
+      <c r="V23">
+        <v>1.77</v>
+      </c>
+      <c r="W23">
         <v>1.28</v>
       </c>
-      <c r="R23">
-        <v>3.67</v>
-      </c>
-      <c r="S23">
-        <v>1.83</v>
-      </c>
-      <c r="T23">
-        <v>1.91</v>
-      </c>
-      <c r="U23">
-        <v>1.77</v>
-      </c>
-      <c r="V23">
-        <v>1.9</v>
-      </c>
-      <c r="W23">
-        <v>1.18</v>
-      </c>
       <c r="X23">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="Y23">
-        <v>2.05</v>
+        <v>1.73</v>
       </c>
       <c r="Z23">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AA23">
-        <v>1.63</v>
+        <v>1.13</v>
       </c>
       <c r="AB23">
-        <v>1.69</v>
+        <v>1.27</v>
       </c>
       <c r="AC23">
         <v>1.22</v>
       </c>
       <c r="AD23">
+        <v>2.49</v>
+      </c>
+      <c r="AE23">
+        <v>1.74</v>
+      </c>
+      <c r="AF23">
+        <v>8.6</v>
+      </c>
+      <c r="AG23">
+        <v>2.54</v>
+      </c>
+      <c r="AH23">
+        <v>1.38</v>
+      </c>
+      <c r="AI23">
+        <v>2.8</v>
+      </c>
+      <c r="AJ23">
+        <v>1.71</v>
+      </c>
+      <c r="AK23">
+        <v>2.06</v>
+      </c>
+      <c r="AL23">
+        <v>2.17</v>
+      </c>
+      <c r="AM23">
+        <v>1.61</v>
+      </c>
+      <c r="AN23">
         <v>2.91</v>
       </c>
-      <c r="AE23">
-        <v>0</v>
-      </c>
-      <c r="AF23">
-        <v>0</v>
-      </c>
-      <c r="AG23">
-        <v>0</v>
-      </c>
-      <c r="AH23">
-        <v>0</v>
-      </c>
-      <c r="AI23">
-        <v>0</v>
-      </c>
-      <c r="AJ23">
-        <v>0</v>
-      </c>
-      <c r="AK23">
-        <v>0</v>
-      </c>
-      <c r="AL23">
-        <v>0</v>
-      </c>
-      <c r="AM23">
-        <v>0</v>
-      </c>
-      <c r="AN23">
-        <v>0</v>
-      </c>
       <c r="AO23">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AP23">
-        <v>0</v>
+        <v>4.15</v>
       </c>
       <c r="AQ23">
-        <v>0</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="24" spans="1:43">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B24" s="2">
         <v>45405</v>
@@ -3798,120 +3798,120 @@
         <v>118</v>
       </c>
       <c r="G24">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="H24">
         <v>2.1</v>
       </c>
       <c r="I24">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="J24">
-        <v>2.01</v>
+        <v>2.21</v>
       </c>
       <c r="K24">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="L24">
-        <v>3.85</v>
+        <v>3.05</v>
       </c>
       <c r="M24">
+        <v>1.39</v>
+      </c>
+      <c r="N24">
+        <v>2.8</v>
+      </c>
+      <c r="O24">
+        <v>1.02</v>
+      </c>
+      <c r="P24">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Q24">
+        <v>1.29</v>
+      </c>
+      <c r="R24">
+        <v>3.6</v>
+      </c>
+      <c r="S24">
+        <v>1.95</v>
+      </c>
+      <c r="T24">
+        <v>1.89</v>
+      </c>
+      <c r="U24">
+        <v>1.7</v>
+      </c>
+      <c r="V24">
+        <v>2.1</v>
+      </c>
+      <c r="W24">
         <v>1.42</v>
       </c>
-      <c r="N24">
-        <v>2.62</v>
-      </c>
-      <c r="O24">
-        <v>1.04</v>
-      </c>
-      <c r="P24">
-        <v>7.6</v>
-      </c>
-      <c r="Q24">
-        <v>1.39</v>
-      </c>
-      <c r="R24">
-        <v>2.99</v>
-      </c>
-      <c r="S24">
-        <v>2.12</v>
-      </c>
-      <c r="T24">
-        <v>1.57</v>
-      </c>
-      <c r="U24">
-        <v>1.91</v>
-      </c>
-      <c r="V24">
-        <v>1.77</v>
-      </c>
-      <c r="W24">
-        <v>1.28</v>
-      </c>
       <c r="X24">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="Y24">
-        <v>1.73</v>
+        <v>1.55</v>
       </c>
       <c r="Z24">
+        <v>1.44</v>
+      </c>
+      <c r="AA24">
+        <v>1.44</v>
+      </c>
+      <c r="AB24">
+        <v>1.34</v>
+      </c>
+      <c r="AC24">
+        <v>1.25</v>
+      </c>
+      <c r="AD24">
+        <v>2.59</v>
+      </c>
+      <c r="AE24">
+        <v>1.9</v>
+      </c>
+      <c r="AF24">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AG24">
+        <v>2.21</v>
+      </c>
+      <c r="AH24">
+        <v>1.29</v>
+      </c>
+      <c r="AI24">
+        <v>3.14</v>
+      </c>
+      <c r="AJ24">
         <v>1.56</v>
       </c>
-      <c r="AA24">
-        <v>1.13</v>
-      </c>
-      <c r="AB24">
-        <v>1.27</v>
-      </c>
-      <c r="AC24">
-        <v>1.22</v>
-      </c>
-      <c r="AD24">
-        <v>2.49</v>
-      </c>
-      <c r="AE24">
-        <v>0</v>
-      </c>
-      <c r="AF24">
-        <v>0</v>
-      </c>
-      <c r="AG24">
-        <v>0</v>
-      </c>
-      <c r="AH24">
-        <v>0</v>
-      </c>
-      <c r="AI24">
-        <v>0</v>
-      </c>
-      <c r="AJ24">
-        <v>0</v>
-      </c>
       <c r="AK24">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="AL24">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="AM24">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="AN24">
-        <v>0</v>
+        <v>2.57</v>
       </c>
       <c r="AO24">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AP24">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="AQ24">
-        <v>0</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="25" spans="1:43">
       <c r="A25" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B25" s="2">
         <v>45405</v>
@@ -3929,120 +3929,120 @@
         <v>119</v>
       </c>
       <c r="G25">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H25">
-        <v>2.06</v>
+        <v>2</v>
       </c>
       <c r="I25">
-        <v>4.96</v>
+        <v>3.9</v>
       </c>
       <c r="J25">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="L25">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="M25">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="N25">
-        <v>2.54</v>
+        <v>2.55</v>
       </c>
       <c r="O25">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="P25">
-        <v>6.85</v>
+        <v>7.9</v>
       </c>
       <c r="Q25">
-        <v>1.46</v>
+        <v>1.37</v>
       </c>
       <c r="R25">
-        <v>2.74</v>
+        <v>3.1</v>
       </c>
       <c r="S25">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="T25">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="U25">
-        <v>2.14</v>
+        <v>1.85</v>
       </c>
       <c r="V25">
-        <v>1.71</v>
+        <v>1.83</v>
       </c>
       <c r="W25">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="X25">
+        <v>1.28</v>
+      </c>
+      <c r="Y25">
+        <v>1.67</v>
+      </c>
+      <c r="Z25">
+        <v>1.69</v>
+      </c>
+      <c r="AA25">
+        <v>1.31</v>
+      </c>
+      <c r="AB25">
+        <v>1.4</v>
+      </c>
+      <c r="AC25">
+        <v>1.26</v>
+      </c>
+      <c r="AD25">
+        <v>2.66</v>
+      </c>
+      <c r="AE25">
+        <v>1.86</v>
+      </c>
+      <c r="AF25">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AG25">
+        <v>2.31</v>
+      </c>
+      <c r="AH25">
         <v>1.35</v>
       </c>
-      <c r="Y25">
-        <v>1.83</v>
-      </c>
-      <c r="Z25">
-        <v>1.31</v>
-      </c>
-      <c r="AA25">
+      <c r="AI25">
+        <v>2.84</v>
+      </c>
+      <c r="AJ25">
+        <v>1.65</v>
+      </c>
+      <c r="AK25">
+        <v>2.11</v>
+      </c>
+      <c r="AL25">
+        <v>2.13</v>
+      </c>
+      <c r="AM25">
+        <v>1.67</v>
+      </c>
+      <c r="AN25">
+        <v>2.8</v>
+      </c>
+      <c r="AO25">
+        <v>1.38</v>
+      </c>
+      <c r="AP25">
+        <v>3.92</v>
+      </c>
+      <c r="AQ25">
         <v>1.19</v>
-      </c>
-      <c r="AB25">
-        <v>1.56</v>
-      </c>
-      <c r="AC25">
-        <v>1.33</v>
-      </c>
-      <c r="AD25">
-        <v>2.89</v>
-      </c>
-      <c r="AE25">
-        <v>0</v>
-      </c>
-      <c r="AF25">
-        <v>0</v>
-      </c>
-      <c r="AG25">
-        <v>0</v>
-      </c>
-      <c r="AH25">
-        <v>0</v>
-      </c>
-      <c r="AI25">
-        <v>0</v>
-      </c>
-      <c r="AJ25">
-        <v>0</v>
-      </c>
-      <c r="AK25">
-        <v>0</v>
-      </c>
-      <c r="AL25">
-        <v>0</v>
-      </c>
-      <c r="AM25">
-        <v>0</v>
-      </c>
-      <c r="AN25">
-        <v>0</v>
-      </c>
-      <c r="AO25">
-        <v>0</v>
-      </c>
-      <c r="AP25">
-        <v>0</v>
-      </c>
-      <c r="AQ25">
-        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:43">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B26" s="2">
         <v>45405</v>
@@ -4060,120 +4060,120 @@
         <v>120</v>
       </c>
       <c r="G26">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <v>4.33</v>
+      </c>
+      <c r="J26">
         <v>2.1</v>
       </c>
-      <c r="I26">
-        <v>3.3</v>
-      </c>
-      <c r="J26">
-        <v>2.37</v>
-      </c>
       <c r="K26">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="L26">
-        <v>2.8</v>
+        <v>3.45</v>
       </c>
       <c r="M26">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="N26">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="O26">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="P26">
-        <v>9.199999999999999</v>
+        <v>6.75</v>
       </c>
       <c r="Q26">
-        <v>1.29</v>
+        <v>1.46</v>
       </c>
       <c r="R26">
-        <v>3.6</v>
+        <v>2.74</v>
       </c>
       <c r="S26">
-        <v>1.85</v>
+        <v>2.36</v>
       </c>
       <c r="T26">
-        <v>1.83</v>
+        <v>1.52</v>
       </c>
       <c r="U26">
+        <v>2</v>
+      </c>
+      <c r="V26">
         <v>1.7</v>
       </c>
-      <c r="V26">
-        <v>2.1</v>
-      </c>
       <c r="W26">
-        <v>1.42</v>
+        <v>1.28</v>
       </c>
       <c r="X26">
+        <v>1.3</v>
+      </c>
+      <c r="Y26">
+        <v>1.67</v>
+      </c>
+      <c r="Z26">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AA26">
+        <v>1.31</v>
+      </c>
+      <c r="AB26">
+        <v>1.67</v>
+      </c>
+      <c r="AC26">
+        <v>1.26</v>
+      </c>
+      <c r="AD26">
+        <v>2.93</v>
+      </c>
+      <c r="AE26">
+        <v>1.67</v>
+      </c>
+      <c r="AF26">
+        <v>8.9</v>
+      </c>
+      <c r="AG26">
+        <v>2.68</v>
+      </c>
+      <c r="AH26">
+        <v>1.28</v>
+      </c>
+      <c r="AI26">
+        <v>3.18</v>
+      </c>
+      <c r="AJ26">
+        <v>1.55</v>
+      </c>
+      <c r="AK26">
+        <v>2.29</v>
+      </c>
+      <c r="AL26">
+        <v>1.96</v>
+      </c>
+      <c r="AM26">
+        <v>1.79</v>
+      </c>
+      <c r="AN26">
+        <v>2.55</v>
+      </c>
+      <c r="AO26">
+        <v>1.45</v>
+      </c>
+      <c r="AP26">
+        <v>3.42</v>
+      </c>
+      <c r="AQ26">
         <v>1.25</v>
-      </c>
-      <c r="Y26">
-        <v>1.55</v>
-      </c>
-      <c r="Z26">
-        <v>1.44</v>
-      </c>
-      <c r="AA26">
-        <v>1.44</v>
-      </c>
-      <c r="AB26">
-        <v>1.34</v>
-      </c>
-      <c r="AC26">
-        <v>1.25</v>
-      </c>
-      <c r="AD26">
-        <v>2.59</v>
-      </c>
-      <c r="AE26">
-        <v>0</v>
-      </c>
-      <c r="AF26">
-        <v>0</v>
-      </c>
-      <c r="AG26">
-        <v>0</v>
-      </c>
-      <c r="AH26">
-        <v>0</v>
-      </c>
-      <c r="AI26">
-        <v>0</v>
-      </c>
-      <c r="AJ26">
-        <v>0</v>
-      </c>
-      <c r="AK26">
-        <v>0</v>
-      </c>
-      <c r="AL26">
-        <v>0</v>
-      </c>
-      <c r="AM26">
-        <v>0</v>
-      </c>
-      <c r="AN26">
-        <v>0</v>
-      </c>
-      <c r="AO26">
-        <v>0</v>
-      </c>
-      <c r="AP26">
-        <v>0</v>
-      </c>
-      <c r="AQ26">
-        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:43">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B27" s="2">
         <v>45405</v>
@@ -4191,46 +4191,46 @@
         <v>121</v>
       </c>
       <c r="G27">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="H27">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="I27">
-        <v>2.55</v>
+        <v>3.35</v>
       </c>
       <c r="J27">
-        <v>3.3</v>
+        <v>2.53</v>
       </c>
       <c r="K27">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="L27">
-        <v>2.1</v>
+        <v>2.67</v>
       </c>
       <c r="M27">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="N27">
-        <v>3.05</v>
+        <v>2.65</v>
       </c>
       <c r="O27">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="P27">
-        <v>9.1</v>
+        <v>8.1</v>
       </c>
       <c r="Q27">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="R27">
-        <v>3.58</v>
+        <v>3.34</v>
       </c>
       <c r="S27">
-        <v>1.91</v>
+        <v>2.06</v>
       </c>
       <c r="T27">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="U27">
         <v>1.73</v>
@@ -4239,72 +4239,72 @@
         <v>1.95</v>
       </c>
       <c r="W27">
+        <v>1.42</v>
+      </c>
+      <c r="X27">
+        <v>1.28</v>
+      </c>
+      <c r="Y27">
+        <v>1.5</v>
+      </c>
+      <c r="Z27">
+        <v>1.88</v>
+      </c>
+      <c r="AA27">
+        <v>1.5</v>
+      </c>
+      <c r="AB27">
+        <v>1.64</v>
+      </c>
+      <c r="AC27">
+        <v>1.32</v>
+      </c>
+      <c r="AD27">
+        <v>2.96</v>
+      </c>
+      <c r="AE27">
         <v>1.8</v>
       </c>
-      <c r="X27">
-        <v>1.3</v>
-      </c>
-      <c r="Y27">
+      <c r="AF27">
+        <v>9</v>
+      </c>
+      <c r="AG27">
+        <v>2.39</v>
+      </c>
+      <c r="AH27">
+        <v>1.25</v>
+      </c>
+      <c r="AI27">
+        <v>3.42</v>
+      </c>
+      <c r="AJ27">
+        <v>1.49</v>
+      </c>
+      <c r="AK27">
+        <v>2.44</v>
+      </c>
+      <c r="AL27">
+        <v>1.86</v>
+      </c>
+      <c r="AM27">
+        <v>1.88</v>
+      </c>
+      <c r="AN27">
+        <v>2.39</v>
+      </c>
+      <c r="AO27">
+        <v>1.51</v>
+      </c>
+      <c r="AP27">
+        <v>3.2</v>
+      </c>
+      <c r="AQ27">
         <v>1.28</v>
-      </c>
-      <c r="Z27">
-        <v>1.56</v>
-      </c>
-      <c r="AA27">
-        <v>1.69</v>
-      </c>
-      <c r="AB27">
-        <v>1.51</v>
-      </c>
-      <c r="AC27">
-        <v>1.43</v>
-      </c>
-      <c r="AD27">
-        <v>2.94</v>
-      </c>
-      <c r="AE27">
-        <v>0</v>
-      </c>
-      <c r="AF27">
-        <v>0</v>
-      </c>
-      <c r="AG27">
-        <v>0</v>
-      </c>
-      <c r="AH27">
-        <v>0</v>
-      </c>
-      <c r="AI27">
-        <v>0</v>
-      </c>
-      <c r="AJ27">
-        <v>0</v>
-      </c>
-      <c r="AK27">
-        <v>0</v>
-      </c>
-      <c r="AL27">
-        <v>0</v>
-      </c>
-      <c r="AM27">
-        <v>0</v>
-      </c>
-      <c r="AN27">
-        <v>0</v>
-      </c>
-      <c r="AO27">
-        <v>0</v>
-      </c>
-      <c r="AP27">
-        <v>0</v>
-      </c>
-      <c r="AQ27">
-        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:43">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B28" s="2">
         <v>45405</v>
@@ -4322,120 +4322,120 @@
         <v>122</v>
       </c>
       <c r="G28">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="I28">
-        <v>4.33</v>
+        <v>2.88</v>
       </c>
       <c r="J28">
+        <v>3.9</v>
+      </c>
+      <c r="K28">
+        <v>2.91</v>
+      </c>
+      <c r="L28">
+        <v>2.04</v>
+      </c>
+      <c r="M28">
+        <v>1.65</v>
+      </c>
+      <c r="N28">
         <v>2.1</v>
       </c>
-      <c r="K28">
-        <v>3.2</v>
-      </c>
-      <c r="L28">
-        <v>3.5</v>
-      </c>
-      <c r="M28">
-        <v>1.5</v>
-      </c>
-      <c r="N28">
-        <v>2.4</v>
-      </c>
       <c r="O28">
-        <v>1.06</v>
+        <v>1.13</v>
       </c>
       <c r="P28">
-        <v>6.75</v>
+        <v>5.93</v>
       </c>
       <c r="Q28">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="R28">
-        <v>2.74</v>
+        <v>2.15</v>
       </c>
       <c r="S28">
-        <v>2.37</v>
+        <v>2.8</v>
       </c>
       <c r="T28">
+        <v>1.38</v>
+      </c>
+      <c r="U28">
+        <v>2.3</v>
+      </c>
+      <c r="V28">
         <v>1.53</v>
       </c>
-      <c r="U28">
-        <v>2</v>
-      </c>
-      <c r="V28">
+      <c r="W28">
         <v>1.7</v>
       </c>
-      <c r="W28">
-        <v>1.28</v>
-      </c>
       <c r="X28">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="Y28">
-        <v>1.67</v>
+        <v>1.22</v>
       </c>
       <c r="Z28">
-        <v>0.9399999999999999</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AA28">
-        <v>1.31</v>
+        <v>0.63</v>
       </c>
       <c r="AB28">
-        <v>1.67</v>
+        <v>1.36</v>
       </c>
       <c r="AC28">
-        <v>1.26</v>
+        <v>0.99</v>
       </c>
       <c r="AD28">
-        <v>2.93</v>
+        <v>2.35</v>
       </c>
       <c r="AE28">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="AF28">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="AG28">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AH28">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AI28">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="AJ28">
-        <v>0</v>
+        <v>2.01</v>
       </c>
       <c r="AK28">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AL28">
-        <v>0</v>
+        <v>2.69</v>
       </c>
       <c r="AM28">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AN28">
-        <v>0</v>
+        <v>3.74</v>
       </c>
       <c r="AO28">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AP28">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AQ28">
-        <v>0</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="29" spans="1:43">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B29" s="2">
         <v>45405</v>
@@ -4453,46 +4453,46 @@
         <v>123</v>
       </c>
       <c r="G29">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
       <c r="H29">
+        <v>2.1</v>
+      </c>
+      <c r="I29">
+        <v>2.55</v>
+      </c>
+      <c r="J29">
+        <v>3.45</v>
+      </c>
+      <c r="K29">
+        <v>3.45</v>
+      </c>
+      <c r="L29">
         <v>2</v>
       </c>
-      <c r="I29">
-        <v>3.35</v>
-      </c>
-      <c r="J29">
-        <v>2.5</v>
-      </c>
-      <c r="K29">
-        <v>3.2</v>
-      </c>
-      <c r="L29">
-        <v>2.8</v>
-      </c>
       <c r="M29">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="N29">
-        <v>2.65</v>
+        <v>3.05</v>
       </c>
       <c r="O29">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="P29">
-        <v>8.1</v>
+        <v>9.1</v>
       </c>
       <c r="Q29">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="R29">
-        <v>3.34</v>
+        <v>3.58</v>
       </c>
       <c r="S29">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="T29">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="U29">
         <v>1.73</v>
@@ -4501,72 +4501,72 @@
         <v>1.95</v>
       </c>
       <c r="W29">
+        <v>1.8</v>
+      </c>
+      <c r="X29">
+        <v>1.3</v>
+      </c>
+      <c r="Y29">
+        <v>1.28</v>
+      </c>
+      <c r="Z29">
+        <v>1.56</v>
+      </c>
+      <c r="AA29">
+        <v>1.69</v>
+      </c>
+      <c r="AB29">
+        <v>1.51</v>
+      </c>
+      <c r="AC29">
+        <v>1.43</v>
+      </c>
+      <c r="AD29">
+        <v>2.94</v>
+      </c>
+      <c r="AE29">
+        <v>2.18</v>
+      </c>
+      <c r="AF29">
+        <v>8.6</v>
+      </c>
+      <c r="AG29">
+        <v>1.93</v>
+      </c>
+      <c r="AH29">
+        <v>1.31</v>
+      </c>
+      <c r="AI29">
+        <v>3.04</v>
+      </c>
+      <c r="AJ29">
+        <v>1.59</v>
+      </c>
+      <c r="AK29">
+        <v>2.21</v>
+      </c>
+      <c r="AL29">
+        <v>2.02</v>
+      </c>
+      <c r="AM29">
+        <v>1.74</v>
+      </c>
+      <c r="AN29">
+        <v>2.65</v>
+      </c>
+      <c r="AO29">
         <v>1.42</v>
       </c>
-      <c r="X29">
-        <v>1.28</v>
-      </c>
-      <c r="Y29">
-        <v>1.5</v>
-      </c>
-      <c r="Z29">
-        <v>1.88</v>
-      </c>
-      <c r="AA29">
-        <v>1.5</v>
-      </c>
-      <c r="AB29">
-        <v>1.64</v>
-      </c>
-      <c r="AC29">
-        <v>1.32</v>
-      </c>
-      <c r="AD29">
-        <v>2.96</v>
-      </c>
-      <c r="AE29">
-        <v>0</v>
-      </c>
-      <c r="AF29">
-        <v>0</v>
-      </c>
-      <c r="AG29">
-        <v>0</v>
-      </c>
-      <c r="AH29">
-        <v>0</v>
-      </c>
-      <c r="AI29">
-        <v>0</v>
-      </c>
-      <c r="AJ29">
-        <v>0</v>
-      </c>
-      <c r="AK29">
-        <v>0</v>
-      </c>
-      <c r="AL29">
-        <v>0</v>
-      </c>
-      <c r="AM29">
-        <v>0</v>
-      </c>
-      <c r="AN29">
-        <v>0</v>
-      </c>
-      <c r="AO29">
-        <v>0</v>
-      </c>
       <c r="AP29">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="AQ29">
-        <v>0</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="30" spans="1:43">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B30" s="2">
         <v>45405</v>
@@ -4584,115 +4584,115 @@
         <v>124</v>
       </c>
       <c r="G30">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="H30">
+        <v>2.06</v>
+      </c>
+      <c r="I30">
+        <v>4.96</v>
+      </c>
+      <c r="J30">
+        <v>2</v>
+      </c>
+      <c r="K30">
+        <v>3.15</v>
+      </c>
+      <c r="L30">
+        <v>3.7</v>
+      </c>
+      <c r="M30">
+        <v>1.52</v>
+      </c>
+      <c r="N30">
+        <v>2.54</v>
+      </c>
+      <c r="O30">
+        <v>1.06</v>
+      </c>
+      <c r="P30">
+        <v>6.85</v>
+      </c>
+      <c r="Q30">
+        <v>1.46</v>
+      </c>
+      <c r="R30">
+        <v>2.74</v>
+      </c>
+      <c r="S30">
+        <v>2.4</v>
+      </c>
+      <c r="T30">
+        <v>1.51</v>
+      </c>
+      <c r="U30">
+        <v>2.14</v>
+      </c>
+      <c r="V30">
+        <v>1.71</v>
+      </c>
+      <c r="W30">
+        <v>1.24</v>
+      </c>
+      <c r="X30">
+        <v>1.35</v>
+      </c>
+      <c r="Y30">
+        <v>1.83</v>
+      </c>
+      <c r="Z30">
+        <v>1.31</v>
+      </c>
+      <c r="AA30">
+        <v>1.19</v>
+      </c>
+      <c r="AB30">
+        <v>1.56</v>
+      </c>
+      <c r="AC30">
+        <v>1.33</v>
+      </c>
+      <c r="AD30">
+        <v>2.89</v>
+      </c>
+      <c r="AE30">
+        <v>1.65</v>
+      </c>
+      <c r="AF30">
+        <v>9</v>
+      </c>
+      <c r="AG30">
+        <v>2.71</v>
+      </c>
+      <c r="AH30">
+        <v>1.28</v>
+      </c>
+      <c r="AI30">
+        <v>3.2</v>
+      </c>
+      <c r="AJ30">
+        <v>1.54</v>
+      </c>
+      <c r="AK30">
+        <v>2.32</v>
+      </c>
+      <c r="AL30">
+        <v>1.95</v>
+      </c>
+      <c r="AM30">
         <v>1.8</v>
       </c>
-      <c r="I30">
-        <v>2.88</v>
-      </c>
-      <c r="J30">
-        <v>3.4</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>2.2</v>
-      </c>
-      <c r="M30">
-        <v>1.65</v>
-      </c>
-      <c r="N30">
-        <v>2.1</v>
-      </c>
-      <c r="O30">
-        <v>1.13</v>
-      </c>
-      <c r="P30">
-        <v>5.93</v>
-      </c>
-      <c r="Q30">
-        <v>1.6</v>
-      </c>
-      <c r="R30">
-        <v>2.2</v>
-      </c>
-      <c r="S30">
-        <v>2.79</v>
-      </c>
-      <c r="T30">
-        <v>1.33</v>
-      </c>
-      <c r="U30">
-        <v>2.3</v>
-      </c>
-      <c r="V30">
-        <v>1.53</v>
-      </c>
-      <c r="W30">
-        <v>1.7</v>
-      </c>
-      <c r="X30">
-        <v>1.33</v>
-      </c>
-      <c r="Y30">
-        <v>1.22</v>
-      </c>
-      <c r="Z30">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AA30">
-        <v>0.63</v>
-      </c>
-      <c r="AB30">
-        <v>1.36</v>
-      </c>
-      <c r="AC30">
-        <v>0.99</v>
-      </c>
-      <c r="AD30">
-        <v>2.35</v>
-      </c>
-      <c r="AE30">
-        <v>0</v>
-      </c>
-      <c r="AF30">
-        <v>0</v>
-      </c>
-      <c r="AG30">
-        <v>0</v>
-      </c>
-      <c r="AH30">
-        <v>0</v>
-      </c>
-      <c r="AI30">
-        <v>0</v>
-      </c>
-      <c r="AJ30">
-        <v>0</v>
-      </c>
-      <c r="AK30">
-        <v>0</v>
-      </c>
-      <c r="AL30">
-        <v>0</v>
-      </c>
-      <c r="AM30">
-        <v>0</v>
-      </c>
       <c r="AN30">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="AO30">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AP30">
-        <v>0</v>
+        <v>3.42</v>
       </c>
       <c r="AQ30">
-        <v>0</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="31" spans="1:43">
@@ -4727,10 +4727,10 @@
         <v>2.05</v>
       </c>
       <c r="K31">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="L31">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M31">
         <v>1.22</v>
@@ -4751,10 +4751,10 @@
         <v>5.5</v>
       </c>
       <c r="S31">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="T31">
-        <v>2.53</v>
+        <v>2.4</v>
       </c>
       <c r="U31">
         <v>1.44</v>
@@ -4778,13 +4778,13 @@
         <v>1.71</v>
       </c>
       <c r="AB31">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="AC31">
         <v>1.64</v>
       </c>
       <c r="AD31">
-        <v>3.44</v>
+        <v>3.4</v>
       </c>
       <c r="AE31">
         <v>1.64</v>
@@ -4855,10 +4855,10 @@
         <v>5</v>
       </c>
       <c r="J32">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="K32">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="L32">
         <v>5.5</v>
@@ -4882,10 +4882,10 @@
         <v>5.5</v>
       </c>
       <c r="S32">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="T32">
-        <v>2.31</v>
+        <v>2.7</v>
       </c>
       <c r="U32">
         <v>1.62</v>

--- a/Jogos_do_Dia/2024-04-23_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2024-04-23_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -166,12 +166,12 @@
     <t>England EFL League Two</t>
   </si>
   <si>
+    <t>France Ligue 2</t>
+  </si>
+  <si>
     <t>England EFL League One</t>
   </si>
   <si>
-    <t>France Ligue 2</t>
-  </si>
-  <si>
     <t>England Championship</t>
   </si>
   <si>
@@ -223,21 +223,21 @@
     <t>Botoşani</t>
   </si>
   <si>
+    <t>Degerfors</t>
+  </si>
+  <si>
+    <t>Pharco</t>
+  </si>
+  <si>
     <t>Al Ahly</t>
   </si>
   <si>
-    <t>Degerfors</t>
-  </si>
-  <si>
-    <t>Pharco</t>
+    <t>Neuchâtel Xamax</t>
   </si>
   <si>
     <t>Bellinzona</t>
   </si>
   <si>
-    <t>Neuchâtel Xamax</t>
-  </si>
-  <si>
     <t>Baden</t>
   </si>
   <si>
@@ -259,42 +259,42 @@
     <t>Colchester United</t>
   </si>
   <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
     <t>Cambridge United</t>
   </si>
   <si>
     <t>Cheltenham Town</t>
   </si>
   <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
     <t>Bordeaux</t>
   </si>
   <si>
     <t>Bastia</t>
   </si>
   <si>
+    <t>Valenciennes</t>
+  </si>
+  <si>
+    <t>Caen</t>
+  </si>
+  <si>
+    <t>Guingamp</t>
+  </si>
+  <si>
     <t>Troyes</t>
   </si>
   <si>
-    <t>Caen</t>
-  </si>
-  <si>
     <t>Quevilly Rouen</t>
   </si>
   <si>
     <t>Rodez</t>
   </si>
   <si>
-    <t>Valenciennes</t>
-  </si>
-  <si>
     <t>Grenoble Foot 38</t>
   </si>
   <si>
-    <t>Guingamp</t>
-  </si>
-  <si>
     <t>Leicester City</t>
   </si>
   <si>
@@ -319,21 +319,21 @@
     <t>Dinamo Bucureşti</t>
   </si>
   <si>
+    <t>Helsingborg</t>
+  </si>
+  <si>
+    <t>Al Masry</t>
+  </si>
+  <si>
     <t>Ceramica Cleopatra</t>
   </si>
   <si>
-    <t>Helsingborg</t>
-  </si>
-  <si>
-    <t>Al Masry</t>
+    <t>Wil</t>
   </si>
   <si>
     <t>FC Schaffhausen</t>
   </si>
   <si>
-    <t>Wil</t>
-  </si>
-  <si>
     <t>Aarau</t>
   </si>
   <si>
@@ -355,40 +355,40 @@
     <t>Doncaster Rovers</t>
   </si>
   <si>
+    <t>Laval</t>
+  </si>
+  <si>
     <t>Wycombe Wanderers</t>
   </si>
   <si>
     <t>Peterborough United</t>
   </si>
   <si>
-    <t>Laval</t>
-  </si>
-  <si>
     <t>Dunkerque</t>
   </si>
   <si>
     <t>Concarneau</t>
   </si>
   <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Annecy</t>
+  </si>
+  <si>
+    <t>Angers SCO</t>
+  </si>
+  <si>
     <t>Pau</t>
   </si>
   <si>
-    <t>Annecy</t>
-  </si>
-  <si>
     <t>Amiens SC</t>
   </si>
   <si>
     <t>Paris</t>
   </si>
   <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
     <t>Saint-Étienne</t>
-  </si>
-  <si>
-    <t>Angers SCO</t>
   </si>
   <si>
     <t>Southampton</t>
@@ -916,22 +916,22 @@
         <v>96</v>
       </c>
       <c r="G2">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="H2">
         <v>2.05</v>
       </c>
       <c r="I2">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J2">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="K2">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="L2">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="M2">
         <v>1.45</v>
@@ -952,16 +952,16 @@
         <v>2.84</v>
       </c>
       <c r="S2">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="T2">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="U2">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V2">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W2">
         <v>1.18</v>
@@ -988,13 +988,13 @@
         <v>2.87</v>
       </c>
       <c r="AE2">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="AF2">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AG2">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="AH2">
         <v>1.32</v>
@@ -1056,13 +1056,13 @@
         <v>3.95</v>
       </c>
       <c r="J3">
-        <v>2.21</v>
+        <v>2.2</v>
       </c>
       <c r="K3">
-        <v>3.03</v>
+        <v>2.98</v>
       </c>
       <c r="L3">
-        <v>3.23</v>
+        <v>2.78</v>
       </c>
       <c r="M3">
         <v>1.43</v>
@@ -1083,10 +1083,10 @@
         <v>2.85</v>
       </c>
       <c r="S3">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="T3">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
       <c r="U3">
         <v>1.89</v>
@@ -1187,13 +1187,13 @@
         <v>2.41</v>
       </c>
       <c r="J4">
-        <v>4.43</v>
+        <v>4.39</v>
       </c>
       <c r="K4">
-        <v>3.62</v>
+        <v>3.64</v>
       </c>
       <c r="L4">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="M4">
         <v>1.43</v>
@@ -1217,7 +1217,7 @@
         <v>2.04</v>
       </c>
       <c r="T4">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="U4">
         <v>1.91</v>
@@ -1318,13 +1318,13 @@
         <v>2.48</v>
       </c>
       <c r="J5">
-        <v>3.73</v>
+        <v>3.71</v>
       </c>
       <c r="K5">
-        <v>3.62</v>
+        <v>3.64</v>
       </c>
       <c r="L5">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="M5">
         <v>1.37</v>
@@ -1449,13 +1449,13 @@
         <v>3.5</v>
       </c>
       <c r="J6">
-        <v>2.58</v>
+        <v>2.36</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>3.13</v>
       </c>
       <c r="L6">
-        <v>2.71</v>
+        <v>2.95</v>
       </c>
       <c r="M6">
         <v>1.45</v>
@@ -1479,7 +1479,7 @@
         <v>2.25</v>
       </c>
       <c r="T6">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="U6">
         <v>1.95</v>
@@ -1553,7 +1553,7 @@
     </row>
     <row r="7" spans="1:43">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B7" s="2">
         <v>45405</v>
@@ -1562,7 +1562,7 @@
         <v>57</v>
       </c>
       <c r="D7">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="E7" t="s">
         <v>69</v>
@@ -1571,22 +1571,22 @@
         <v>101</v>
       </c>
       <c r="G7">
-        <v>2.88</v>
+        <v>2.4</v>
       </c>
       <c r="H7">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="I7">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="J7">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>3.62</v>
       </c>
       <c r="L7">
-        <v>3</v>
+        <v>4.3</v>
       </c>
       <c r="M7">
         <v>1.4</v>
@@ -1595,96 +1595,96 @@
         <v>2.75</v>
       </c>
       <c r="O7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="P7">
-        <v>8.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="Q7">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="R7">
-        <v>3.44</v>
+        <v>3.25</v>
       </c>
       <c r="S7">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T7">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="U7">
-        <v>1.73</v>
+        <v>1.95</v>
       </c>
       <c r="V7">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W7">
+        <v>1.2</v>
+      </c>
+      <c r="X7">
+        <v>1.22</v>
+      </c>
+      <c r="Y7">
+        <v>2.05</v>
+      </c>
+      <c r="Z7">
+        <v>3</v>
+      </c>
+      <c r="AA7">
+        <v>3</v>
+      </c>
+      <c r="AB7">
+        <v>2.19</v>
+      </c>
+      <c r="AC7">
+        <v>1.13</v>
+      </c>
+      <c r="AD7">
+        <v>3.32</v>
+      </c>
+      <c r="AE7">
+        <v>1.64</v>
+      </c>
+      <c r="AF7">
+        <v>8.5</v>
+      </c>
+      <c r="AG7">
+        <v>2.66</v>
+      </c>
+      <c r="AH7">
+        <v>1.17</v>
+      </c>
+      <c r="AI7">
+        <v>4.5</v>
+      </c>
+      <c r="AJ7">
         <v>1.3</v>
       </c>
-      <c r="X7">
-        <v>1.3</v>
-      </c>
-      <c r="Y7">
-        <v>1.53</v>
-      </c>
-      <c r="Z7">
-        <v>2.33</v>
-      </c>
-      <c r="AA7">
-        <v>1</v>
-      </c>
-      <c r="AB7">
-        <v>1.69</v>
-      </c>
-      <c r="AC7">
-        <v>1.79</v>
-      </c>
-      <c r="AD7">
-        <v>3.48</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
-      <c r="AH7">
-        <v>0</v>
-      </c>
-      <c r="AI7">
-        <v>0</v>
-      </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
       <c r="AK7">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AL7">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AM7">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AN7">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AO7">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AP7">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AQ7">
-        <v>0</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="8" spans="1:43">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B8" s="2">
         <v>45405</v>
@@ -1693,7 +1693,7 @@
         <v>57</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
         <v>70</v>
@@ -1702,115 +1702,115 @@
         <v>102</v>
       </c>
       <c r="G8">
-        <v>2.4</v>
+        <v>4.33</v>
       </c>
       <c r="H8">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="I8">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="J8">
-        <v>1.78</v>
+        <v>3.4</v>
       </c>
       <c r="K8">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="L8">
-        <v>4.25</v>
+        <v>2</v>
       </c>
       <c r="M8">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="N8">
-        <v>2.75</v>
+        <v>2.35</v>
       </c>
       <c r="O8">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="P8">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="Q8">
-        <v>1.33</v>
+        <v>1.45</v>
       </c>
       <c r="R8">
-        <v>3.25</v>
+        <v>2.6</v>
       </c>
       <c r="S8">
-        <v>2.02</v>
+        <v>2.35</v>
       </c>
       <c r="T8">
-        <v>1.82</v>
+        <v>1.57</v>
       </c>
       <c r="U8">
+        <v>2.1</v>
+      </c>
+      <c r="V8">
+        <v>1.67</v>
+      </c>
+      <c r="W8">
+        <v>1.62</v>
+      </c>
+      <c r="X8">
+        <v>1.3</v>
+      </c>
+      <c r="Y8">
+        <v>1.28</v>
+      </c>
+      <c r="Z8">
+        <v>0.86</v>
+      </c>
+      <c r="AA8">
+        <v>1.57</v>
+      </c>
+      <c r="AB8">
+        <v>1.46</v>
+      </c>
+      <c r="AC8">
+        <v>1.1</v>
+      </c>
+      <c r="AD8">
+        <v>2.56</v>
+      </c>
+      <c r="AE8">
+        <v>2.08</v>
+      </c>
+      <c r="AF8">
+        <v>8.1</v>
+      </c>
+      <c r="AG8">
         <v>1.95</v>
       </c>
-      <c r="V8">
-        <v>1.8</v>
-      </c>
-      <c r="W8">
-        <v>1.2</v>
-      </c>
-      <c r="X8">
-        <v>1.22</v>
-      </c>
-      <c r="Y8">
-        <v>2.05</v>
-      </c>
-      <c r="Z8">
-        <v>3</v>
-      </c>
-      <c r="AA8">
-        <v>3</v>
-      </c>
-      <c r="AB8">
-        <v>2.19</v>
-      </c>
-      <c r="AC8">
-        <v>1.13</v>
-      </c>
-      <c r="AD8">
-        <v>3.32</v>
-      </c>
-      <c r="AE8">
-        <v>1.64</v>
-      </c>
-      <c r="AF8">
-        <v>8.5</v>
-      </c>
-      <c r="AG8">
-        <v>2.66</v>
-      </c>
       <c r="AH8">
-        <v>1.17</v>
+        <v>1.35</v>
       </c>
       <c r="AI8">
-        <v>4.5</v>
+        <v>2.84</v>
       </c>
       <c r="AJ8">
-        <v>1.3</v>
+        <v>1.71</v>
       </c>
       <c r="AK8">
-        <v>3.3</v>
+        <v>2.12</v>
       </c>
       <c r="AL8">
-        <v>1.55</v>
+        <v>2.15</v>
       </c>
       <c r="AM8">
-        <v>2.38</v>
+        <v>1.69</v>
       </c>
       <c r="AN8">
-        <v>1.95</v>
+        <v>2.79</v>
       </c>
       <c r="AO8">
-        <v>1.85</v>
+        <v>1.36</v>
       </c>
       <c r="AP8">
-        <v>2.5</v>
+        <v>3.68</v>
       </c>
       <c r="AQ8">
-        <v>1.49</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="9" spans="1:43">
@@ -1833,115 +1833,115 @@
         <v>103</v>
       </c>
       <c r="G9">
-        <v>4.75</v>
+        <v>2.88</v>
       </c>
       <c r="H9">
+        <v>2.1</v>
+      </c>
+      <c r="I9">
+        <v>3.5</v>
+      </c>
+      <c r="J9">
+        <v>2.25</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9">
+        <v>1.4</v>
+      </c>
+      <c r="N9">
+        <v>2.75</v>
+      </c>
+      <c r="O9">
+        <v>1.02</v>
+      </c>
+      <c r="P9">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Q9">
+        <v>1.26</v>
+      </c>
+      <c r="R9">
+        <v>3.44</v>
+      </c>
+      <c r="S9">
+        <v>1.9</v>
+      </c>
+      <c r="T9">
+        <v>1.9</v>
+      </c>
+      <c r="U9">
+        <v>1.73</v>
+      </c>
+      <c r="V9">
         <v>2</v>
       </c>
-      <c r="I9">
-        <v>2.5</v>
-      </c>
-      <c r="J9">
-        <v>4</v>
-      </c>
-      <c r="K9">
-        <v>3.4</v>
-      </c>
-      <c r="L9">
-        <v>1.8</v>
-      </c>
-      <c r="M9">
-        <v>1.53</v>
-      </c>
-      <c r="N9">
-        <v>2.35</v>
-      </c>
-      <c r="O9">
-        <v>1.09</v>
-      </c>
-      <c r="P9">
-        <v>6.5</v>
-      </c>
-      <c r="Q9">
-        <v>1.45</v>
-      </c>
-      <c r="R9">
-        <v>2.6</v>
-      </c>
-      <c r="S9">
-        <v>2.3</v>
-      </c>
-      <c r="T9">
-        <v>1.6</v>
-      </c>
-      <c r="U9">
-        <v>2.2</v>
-      </c>
-      <c r="V9">
-        <v>1.62</v>
-      </c>
       <c r="W9">
-        <v>1.62</v>
+        <v>1.3</v>
       </c>
       <c r="X9">
         <v>1.3</v>
       </c>
       <c r="Y9">
-        <v>1.28</v>
+        <v>1.53</v>
       </c>
       <c r="Z9">
-        <v>0.86</v>
+        <v>2.33</v>
       </c>
       <c r="AA9">
-        <v>1.57</v>
+        <v>1</v>
       </c>
       <c r="AB9">
-        <v>1.46</v>
+        <v>1.69</v>
       </c>
       <c r="AC9">
-        <v>1.1</v>
+        <v>1.79</v>
       </c>
       <c r="AD9">
-        <v>2.56</v>
+        <v>3.48</v>
       </c>
       <c r="AE9">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="AF9">
-        <v>8.1</v>
+        <v>0</v>
       </c>
       <c r="AG9">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="AH9">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="AI9">
-        <v>2.84</v>
+        <v>0</v>
       </c>
       <c r="AJ9">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="AK9">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="AL9">
-        <v>2.15</v>
+        <v>0</v>
       </c>
       <c r="AM9">
-        <v>1.69</v>
+        <v>0</v>
       </c>
       <c r="AN9">
-        <v>2.79</v>
+        <v>0</v>
       </c>
       <c r="AO9">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="AP9">
-        <v>3.68</v>
+        <v>0</v>
       </c>
       <c r="AQ9">
-        <v>1.24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:43">
@@ -1964,115 +1964,115 @@
         <v>104</v>
       </c>
       <c r="G10">
-        <v>3.2</v>
+        <v>2.63</v>
       </c>
       <c r="H10">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="I10">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="J10">
-        <v>2.41</v>
+        <v>2.12</v>
       </c>
       <c r="K10">
-        <v>3.23</v>
+        <v>3.44</v>
       </c>
       <c r="L10">
-        <v>2.81</v>
+        <v>3.16</v>
       </c>
       <c r="M10">
-        <v>1.45</v>
+        <v>1.34</v>
       </c>
       <c r="N10">
-        <v>2.6</v>
+        <v>3.18</v>
       </c>
       <c r="O10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="P10">
-        <v>7.45</v>
+        <v>10</v>
       </c>
       <c r="Q10">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="R10">
-        <v>3.13</v>
+        <v>3.6</v>
       </c>
       <c r="S10">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="T10">
-        <v>1.79</v>
+        <v>1.9</v>
       </c>
       <c r="U10">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V10">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W10">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="X10">
         <v>1.3</v>
       </c>
       <c r="Y10">
-        <v>1.45</v>
+        <v>1.7</v>
       </c>
       <c r="Z10">
-        <v>1.29</v>
+        <v>1.6</v>
       </c>
       <c r="AA10">
-        <v>0.86</v>
+        <v>0.93</v>
       </c>
       <c r="AB10">
-        <v>1.6</v>
+        <v>1.37</v>
       </c>
       <c r="AC10">
-        <v>1.08</v>
+        <v>1.47</v>
       </c>
       <c r="AD10">
-        <v>2.68</v>
+        <v>2.84</v>
       </c>
       <c r="AE10">
-        <v>1.9</v>
+        <v>1.77</v>
       </c>
       <c r="AF10">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="AG10">
-        <v>2.11</v>
+        <v>2.29</v>
       </c>
       <c r="AH10">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AI10">
-        <v>3.48</v>
+        <v>3.65</v>
       </c>
       <c r="AJ10">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AK10">
-        <v>2.48</v>
+        <v>2.57</v>
       </c>
       <c r="AL10">
-        <v>1.78</v>
+        <v>2.38</v>
       </c>
       <c r="AM10">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="AN10">
-        <v>2.3</v>
+        <v>2.21</v>
       </c>
       <c r="AO10">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="AP10">
-        <v>3.08</v>
+        <v>2.93</v>
       </c>
       <c r="AQ10">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="11" spans="1:43">
@@ -2095,115 +2095,115 @@
         <v>105</v>
       </c>
       <c r="G11">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="H11">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="I11">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="J11">
-        <v>2.11</v>
+        <v>2.65</v>
       </c>
       <c r="K11">
-        <v>3.45</v>
+        <v>3.15</v>
       </c>
       <c r="L11">
-        <v>3.15</v>
+        <v>2.56</v>
       </c>
       <c r="M11">
-        <v>1.34</v>
+        <v>1.45</v>
       </c>
       <c r="N11">
-        <v>3.18</v>
+        <v>2.6</v>
       </c>
       <c r="O11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="P11">
-        <v>10</v>
+        <v>7.45</v>
       </c>
       <c r="Q11">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="R11">
-        <v>3.6</v>
+        <v>3.13</v>
       </c>
       <c r="S11">
-        <v>1.81</v>
+        <v>2</v>
       </c>
       <c r="T11">
-        <v>1.89</v>
+        <v>1.75</v>
       </c>
       <c r="U11">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V11">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W11">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="X11">
         <v>1.3</v>
       </c>
       <c r="Y11">
-        <v>1.7</v>
+        <v>1.45</v>
       </c>
       <c r="Z11">
+        <v>1.29</v>
+      </c>
+      <c r="AA11">
+        <v>0.86</v>
+      </c>
+      <c r="AB11">
         <v>1.6</v>
       </c>
-      <c r="AA11">
-        <v>0.93</v>
-      </c>
-      <c r="AB11">
-        <v>1.37</v>
-      </c>
       <c r="AC11">
-        <v>1.47</v>
+        <v>1.08</v>
       </c>
       <c r="AD11">
-        <v>2.84</v>
+        <v>2.68</v>
       </c>
       <c r="AE11">
-        <v>1.69</v>
+        <v>1.9</v>
       </c>
       <c r="AF11">
-        <v>8.699999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="AG11">
-        <v>2.43</v>
+        <v>2.11</v>
       </c>
       <c r="AH11">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="AI11">
-        <v>3.65</v>
+        <v>3.48</v>
       </c>
       <c r="AJ11">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="AK11">
-        <v>2.57</v>
+        <v>2.48</v>
       </c>
       <c r="AL11">
-        <v>1.74</v>
+        <v>2.1</v>
       </c>
       <c r="AM11">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AN11">
-        <v>2.21</v>
+        <v>2.3</v>
       </c>
       <c r="AO11">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="AP11">
-        <v>2.98</v>
+        <v>3.08</v>
       </c>
       <c r="AQ11">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="12" spans="1:43">
@@ -2226,22 +2226,22 @@
         <v>106</v>
       </c>
       <c r="G12">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H12">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="I12">
         <v>2.4</v>
       </c>
       <c r="J12">
-        <v>3.42</v>
+        <v>3.41</v>
       </c>
       <c r="K12">
-        <v>3.92</v>
+        <v>3.9</v>
       </c>
       <c r="L12">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="M12">
         <v>1.25</v>
@@ -2262,16 +2262,16 @@
         <v>5.05</v>
       </c>
       <c r="S12">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="T12">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="U12">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V12">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W12">
         <v>1.68</v>
@@ -2366,13 +2366,13 @@
         <v>3.74</v>
       </c>
       <c r="J13">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="K13">
-        <v>3.1</v>
+        <v>3.13</v>
       </c>
       <c r="L13">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="M13">
         <v>1.56</v>
@@ -2393,7 +2393,7 @@
         <v>2.48</v>
       </c>
       <c r="S13">
-        <v>2.5</v>
+        <v>2.49</v>
       </c>
       <c r="T13">
         <v>1.54</v>
@@ -2497,13 +2497,13 @@
         <v>3.4</v>
       </c>
       <c r="J14">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="K14">
-        <v>3.67</v>
+        <v>3.73</v>
       </c>
       <c r="L14">
-        <v>2.97</v>
+        <v>3</v>
       </c>
       <c r="M14">
         <v>1.3</v>
@@ -2527,7 +2527,7 @@
         <v>1.68</v>
       </c>
       <c r="T14">
-        <v>2.2</v>
+        <v>2.19</v>
       </c>
       <c r="U14">
         <v>1.5</v>
@@ -2628,13 +2628,13 @@
         <v>2.38</v>
       </c>
       <c r="J15">
-        <v>3.35</v>
+        <v>3.71</v>
       </c>
       <c r="K15">
-        <v>3.6</v>
+        <v>3.73</v>
       </c>
       <c r="L15">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="M15">
         <v>1.33</v>
@@ -2655,10 +2655,10 @@
         <v>3.75</v>
       </c>
       <c r="S15">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="T15">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="U15">
         <v>1.67</v>
@@ -2759,13 +2759,13 @@
         <v>3.4</v>
       </c>
       <c r="J16">
-        <v>2.35</v>
+        <v>2.46</v>
       </c>
       <c r="K16">
-        <v>3.35</v>
+        <v>3.49</v>
       </c>
       <c r="L16">
-        <v>2.8</v>
+        <v>2.83</v>
       </c>
       <c r="M16">
         <v>1.38</v>
@@ -2786,10 +2786,10 @@
         <v>3.34</v>
       </c>
       <c r="S16">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="T16">
-        <v>1.94</v>
+        <v>1.9</v>
       </c>
       <c r="U16">
         <v>1.71</v>
@@ -2890,13 +2890,13 @@
         <v>3.75</v>
       </c>
       <c r="J17">
-        <v>2.35</v>
+        <v>2.26</v>
       </c>
       <c r="K17">
-        <v>3.3</v>
+        <v>3.34</v>
       </c>
       <c r="L17">
-        <v>2.85</v>
+        <v>3.1</v>
       </c>
       <c r="M17">
         <v>1.5</v>
@@ -2917,7 +2917,7 @@
         <v>2.9</v>
       </c>
       <c r="S17">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T17">
         <v>1.75</v>
@@ -3021,13 +3021,13 @@
         <v>3.5</v>
       </c>
       <c r="J18">
-        <v>2.85</v>
+        <v>2.47</v>
       </c>
       <c r="K18">
-        <v>3.45</v>
+        <v>3.54</v>
       </c>
       <c r="L18">
-        <v>2.3</v>
+        <v>2.62</v>
       </c>
       <c r="M18">
         <v>1.36</v>
@@ -3048,7 +3048,7 @@
         <v>3.85</v>
       </c>
       <c r="S18">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="T18">
         <v>2</v>
@@ -3134,7 +3134,7 @@
         <v>61</v>
       </c>
       <c r="D19">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E19" t="s">
         <v>81</v>
@@ -3143,120 +3143,120 @@
         <v>113</v>
       </c>
       <c r="G19">
-        <v>3.5</v>
+        <v>2.1</v>
       </c>
       <c r="H19">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="I19">
-        <v>3.5</v>
+        <v>6.25</v>
       </c>
       <c r="J19">
-        <v>2.75</v>
+        <v>1.64</v>
       </c>
       <c r="K19">
-        <v>2.95</v>
+        <v>3.86</v>
       </c>
       <c r="L19">
-        <v>2.4</v>
+        <v>5.45</v>
       </c>
       <c r="M19">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="N19">
-        <v>2.38</v>
+        <v>2.6</v>
       </c>
       <c r="O19">
-        <v>1.1</v>
+        <v>1.02</v>
       </c>
       <c r="P19">
-        <v>6.5</v>
+        <v>8.6</v>
       </c>
       <c r="Q19">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="R19">
-        <v>2.65</v>
+        <v>3.11</v>
       </c>
       <c r="S19">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="T19">
-        <v>1.65</v>
+        <v>1.77</v>
       </c>
       <c r="U19">
+        <v>2.15</v>
+      </c>
+      <c r="V19">
+        <v>1.62</v>
+      </c>
+      <c r="W19">
+        <v>1.15</v>
+      </c>
+      <c r="X19">
+        <v>1.25</v>
+      </c>
+      <c r="Y19">
+        <v>2.35</v>
+      </c>
+      <c r="Z19">
         <v>2</v>
       </c>
-      <c r="V19">
-        <v>1.75</v>
-      </c>
-      <c r="W19">
-        <v>1.42</v>
-      </c>
-      <c r="X19">
-        <v>1.33</v>
-      </c>
-      <c r="Y19">
-        <v>1.48</v>
-      </c>
-      <c r="Z19">
-        <v>1.36</v>
-      </c>
       <c r="AA19">
-        <v>1.36</v>
+        <v>1.81</v>
       </c>
       <c r="AB19">
-        <v>1.16</v>
+        <v>1.69</v>
       </c>
       <c r="AC19">
-        <v>1.16</v>
+        <v>1.28</v>
       </c>
       <c r="AD19">
-        <v>2.32</v>
+        <v>2.97</v>
       </c>
       <c r="AE19">
-        <v>1.92</v>
+        <v>1.31</v>
       </c>
       <c r="AF19">
-        <v>9.1</v>
+        <v>10.7</v>
       </c>
       <c r="AG19">
-        <v>2.16</v>
+        <v>4.37</v>
       </c>
       <c r="AH19">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="AI19">
-        <v>4.05</v>
+        <v>3.28</v>
       </c>
       <c r="AJ19">
-        <v>1.38</v>
+        <v>1.51</v>
       </c>
       <c r="AK19">
-        <v>2.8</v>
+        <v>2.39</v>
       </c>
       <c r="AL19">
-        <v>1.68</v>
+        <v>1.89</v>
       </c>
       <c r="AM19">
-        <v>2.11</v>
+        <v>1.85</v>
       </c>
       <c r="AN19">
-        <v>2</v>
+        <v>2.44</v>
       </c>
       <c r="AO19">
-        <v>1.8</v>
+        <v>1.49</v>
       </c>
       <c r="AP19">
-        <v>2.75</v>
+        <v>3.28</v>
       </c>
       <c r="AQ19">
-        <v>1.37</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="20" spans="1:43">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B20" s="2">
         <v>45405</v>
@@ -3274,115 +3274,115 @@
         <v>114</v>
       </c>
       <c r="G20">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H20">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="I20">
+        <v>3.5</v>
+      </c>
+      <c r="J20">
+        <v>2.84</v>
+      </c>
+      <c r="K20">
+        <v>3.28</v>
+      </c>
+      <c r="L20">
+        <v>2.51</v>
+      </c>
+      <c r="M20">
+        <v>1.53</v>
+      </c>
+      <c r="N20">
+        <v>2.38</v>
+      </c>
+      <c r="O20">
+        <v>1.1</v>
+      </c>
+      <c r="P20">
+        <v>6.5</v>
+      </c>
+      <c r="Q20">
+        <v>1.44</v>
+      </c>
+      <c r="R20">
+        <v>2.65</v>
+      </c>
+      <c r="S20">
+        <v>2.35</v>
+      </c>
+      <c r="T20">
+        <v>1.57</v>
+      </c>
+      <c r="U20">
+        <v>2</v>
+      </c>
+      <c r="V20">
+        <v>1.75</v>
+      </c>
+      <c r="W20">
+        <v>1.42</v>
+      </c>
+      <c r="X20">
+        <v>1.33</v>
+      </c>
+      <c r="Y20">
+        <v>1.48</v>
+      </c>
+      <c r="Z20">
+        <v>1.36</v>
+      </c>
+      <c r="AA20">
+        <v>1.36</v>
+      </c>
+      <c r="AB20">
+        <v>1.16</v>
+      </c>
+      <c r="AC20">
+        <v>1.16</v>
+      </c>
+      <c r="AD20">
+        <v>2.32</v>
+      </c>
+      <c r="AE20">
+        <v>1.92</v>
+      </c>
+      <c r="AF20">
+        <v>9.1</v>
+      </c>
+      <c r="AG20">
+        <v>2.16</v>
+      </c>
+      <c r="AH20">
+        <v>1.18</v>
+      </c>
+      <c r="AI20">
+        <v>4.05</v>
+      </c>
+      <c r="AJ20">
+        <v>1.38</v>
+      </c>
+      <c r="AK20">
+        <v>2.8</v>
+      </c>
+      <c r="AL20">
+        <v>1.68</v>
+      </c>
+      <c r="AM20">
+        <v>2.11</v>
+      </c>
+      <c r="AN20">
+        <v>2</v>
+      </c>
+      <c r="AO20">
+        <v>1.8</v>
+      </c>
+      <c r="AP20">
         <v>2.75</v>
       </c>
-      <c r="J20">
-        <v>2.9</v>
-      </c>
-      <c r="K20">
-        <v>3.65</v>
-      </c>
-      <c r="L20">
-        <v>2</v>
-      </c>
-      <c r="M20">
-        <v>1.33</v>
-      </c>
-      <c r="N20">
-        <v>3.25</v>
-      </c>
-      <c r="O20">
-        <v>1.03</v>
-      </c>
-      <c r="P20">
-        <v>11</v>
-      </c>
-      <c r="Q20">
-        <v>1.19</v>
-      </c>
-      <c r="R20">
-        <v>3.94</v>
-      </c>
-      <c r="S20">
-        <v>1.65</v>
-      </c>
-      <c r="T20">
-        <v>2.1</v>
-      </c>
-      <c r="U20">
-        <v>1.67</v>
-      </c>
-      <c r="V20">
-        <v>2.1</v>
-      </c>
-      <c r="W20">
-        <v>1.74</v>
-      </c>
-      <c r="X20">
-        <v>1.28</v>
-      </c>
-      <c r="Y20">
-        <v>1.34</v>
-      </c>
-      <c r="Z20">
-        <v>1</v>
-      </c>
-      <c r="AA20">
-        <v>1.82</v>
-      </c>
-      <c r="AB20">
-        <v>1.36</v>
-      </c>
-      <c r="AC20">
-        <v>1.58</v>
-      </c>
-      <c r="AD20">
-        <v>2.94</v>
-      </c>
-      <c r="AE20">
-        <v>2.56</v>
-      </c>
-      <c r="AF20">
-        <v>9.4</v>
-      </c>
-      <c r="AG20">
-        <v>1.7</v>
-      </c>
-      <c r="AH20">
-        <v>1.25</v>
-      </c>
-      <c r="AI20">
-        <v>3.6</v>
-      </c>
-      <c r="AJ20">
-        <v>1.35</v>
-      </c>
-      <c r="AK20">
-        <v>2.84</v>
-      </c>
-      <c r="AL20">
-        <v>1.74</v>
-      </c>
-      <c r="AM20">
-        <v>2</v>
-      </c>
-      <c r="AN20">
-        <v>2.08</v>
-      </c>
-      <c r="AO20">
-        <v>1.7</v>
-      </c>
-      <c r="AP20">
-        <v>2.69</v>
-      </c>
       <c r="AQ20">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="21" spans="1:43">
@@ -3396,7 +3396,7 @@
         <v>61</v>
       </c>
       <c r="D21">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E21" t="s">
         <v>83</v>
@@ -3405,120 +3405,120 @@
         <v>115</v>
       </c>
       <c r="G21">
+        <v>3.6</v>
+      </c>
+      <c r="H21">
+        <v>2.3</v>
+      </c>
+      <c r="I21">
+        <v>2.75</v>
+      </c>
+      <c r="J21">
+        <v>3.13</v>
+      </c>
+      <c r="K21">
+        <v>3.66</v>
+      </c>
+      <c r="L21">
+        <v>2.18</v>
+      </c>
+      <c r="M21">
+        <v>1.33</v>
+      </c>
+      <c r="N21">
+        <v>3.25</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>11</v>
+      </c>
+      <c r="Q21">
+        <v>1.19</v>
+      </c>
+      <c r="R21">
+        <v>3.94</v>
+      </c>
+      <c r="S21">
+        <v>1.65</v>
+      </c>
+      <c r="T21">
+        <v>2.2</v>
+      </c>
+      <c r="U21">
+        <v>1.67</v>
+      </c>
+      <c r="V21">
         <v>2.1</v>
       </c>
-      <c r="H21">
-        <v>2.1</v>
-      </c>
-      <c r="I21">
-        <v>6.25</v>
-      </c>
-      <c r="J21">
+      <c r="W21">
+        <v>1.74</v>
+      </c>
+      <c r="X21">
+        <v>1.28</v>
+      </c>
+      <c r="Y21">
+        <v>1.34</v>
+      </c>
+      <c r="Z21">
+        <v>1</v>
+      </c>
+      <c r="AA21">
+        <v>1.82</v>
+      </c>
+      <c r="AB21">
+        <v>1.36</v>
+      </c>
+      <c r="AC21">
         <v>1.58</v>
       </c>
-      <c r="K21">
-        <v>3.75</v>
-      </c>
-      <c r="L21">
-        <v>5.7</v>
-      </c>
-      <c r="M21">
-        <v>1.45</v>
-      </c>
-      <c r="N21">
-        <v>2.6</v>
-      </c>
-      <c r="O21">
-        <v>1.02</v>
-      </c>
-      <c r="P21">
-        <v>8.6</v>
-      </c>
-      <c r="Q21">
-        <v>1.37</v>
-      </c>
-      <c r="R21">
-        <v>3.11</v>
-      </c>
-      <c r="S21">
-        <v>2.11</v>
-      </c>
-      <c r="T21">
+      <c r="AD21">
+        <v>2.94</v>
+      </c>
+      <c r="AE21">
+        <v>2.56</v>
+      </c>
+      <c r="AF21">
+        <v>9.4</v>
+      </c>
+      <c r="AG21">
+        <v>1.7</v>
+      </c>
+      <c r="AH21">
+        <v>1.25</v>
+      </c>
+      <c r="AI21">
+        <v>3.6</v>
+      </c>
+      <c r="AJ21">
+        <v>1.35</v>
+      </c>
+      <c r="AK21">
+        <v>2.84</v>
+      </c>
+      <c r="AL21">
         <v>1.74</v>
       </c>
-      <c r="U21">
-        <v>2.15</v>
-      </c>
-      <c r="V21">
-        <v>1.62</v>
-      </c>
-      <c r="W21">
-        <v>1.15</v>
-      </c>
-      <c r="X21">
-        <v>1.25</v>
-      </c>
-      <c r="Y21">
-        <v>2.35</v>
-      </c>
-      <c r="Z21">
+      <c r="AM21">
         <v>2</v>
       </c>
-      <c r="AA21">
-        <v>1.81</v>
-      </c>
-      <c r="AB21">
-        <v>1.69</v>
-      </c>
-      <c r="AC21">
-        <v>1.28</v>
-      </c>
-      <c r="AD21">
-        <v>2.97</v>
-      </c>
-      <c r="AE21">
-        <v>1.31</v>
-      </c>
-      <c r="AF21">
-        <v>10.7</v>
-      </c>
-      <c r="AG21">
-        <v>4.37</v>
-      </c>
-      <c r="AH21">
-        <v>1.27</v>
-      </c>
-      <c r="AI21">
-        <v>3.28</v>
-      </c>
-      <c r="AJ21">
-        <v>1.51</v>
-      </c>
-      <c r="AK21">
-        <v>2.39</v>
-      </c>
-      <c r="AL21">
-        <v>1.89</v>
-      </c>
-      <c r="AM21">
-        <v>1.85</v>
-      </c>
       <c r="AN21">
-        <v>2.44</v>
+        <v>2.08</v>
       </c>
       <c r="AO21">
-        <v>1.49</v>
+        <v>1.7</v>
       </c>
       <c r="AP21">
-        <v>3.28</v>
+        <v>2.69</v>
       </c>
       <c r="AQ21">
-        <v>1.27</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="22" spans="1:43">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B22" s="2">
         <v>45405</v>
@@ -3545,13 +3545,13 @@
         <v>4.75</v>
       </c>
       <c r="J22">
-        <v>1.77</v>
+        <v>1.72</v>
       </c>
       <c r="K22">
-        <v>3.7</v>
+        <v>3.88</v>
       </c>
       <c r="L22">
-        <v>4.1</v>
+        <v>4.71</v>
       </c>
       <c r="M22">
         <v>1.36</v>
@@ -3572,7 +3572,7 @@
         <v>3.67</v>
       </c>
       <c r="S22">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="T22">
         <v>1.93</v>
@@ -3649,7 +3649,7 @@
     </row>
     <row r="23" spans="1:43">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B23" s="2">
         <v>45405</v>
@@ -3676,13 +3676,13 @@
         <v>4</v>
       </c>
       <c r="J23">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="K23">
-        <v>3.15</v>
+        <v>3.4</v>
       </c>
       <c r="L23">
-        <v>3.45</v>
+        <v>3.83</v>
       </c>
       <c r="M23">
         <v>1.42</v>
@@ -3703,10 +3703,10 @@
         <v>2.99</v>
       </c>
       <c r="S23">
-        <v>2.19</v>
+        <v>2.22</v>
       </c>
       <c r="T23">
-        <v>1.6</v>
+        <v>1.66</v>
       </c>
       <c r="U23">
         <v>1.91</v>
@@ -3780,7 +3780,7 @@
     </row>
     <row r="24" spans="1:43">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24" s="2">
         <v>45405</v>
@@ -3798,120 +3798,120 @@
         <v>118</v>
       </c>
       <c r="G24">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="H24">
+        <v>1.8</v>
+      </c>
+      <c r="I24">
+        <v>2.88</v>
+      </c>
+      <c r="J24">
+        <v>3.57</v>
+      </c>
+      <c r="K24">
+        <v>2.99</v>
+      </c>
+      <c r="L24">
+        <v>2.29</v>
+      </c>
+      <c r="M24">
+        <v>1.65</v>
+      </c>
+      <c r="N24">
         <v>2.1</v>
       </c>
-      <c r="I24">
-        <v>3.3</v>
-      </c>
-      <c r="J24">
-        <v>2.21</v>
-      </c>
-      <c r="K24">
-        <v>3.3</v>
-      </c>
-      <c r="L24">
-        <v>3.05</v>
-      </c>
-      <c r="M24">
-        <v>1.39</v>
-      </c>
-      <c r="N24">
-        <v>2.8</v>
-      </c>
       <c r="O24">
-        <v>1.02</v>
+        <v>1.13</v>
       </c>
       <c r="P24">
-        <v>9.199999999999999</v>
+        <v>5.93</v>
       </c>
       <c r="Q24">
-        <v>1.29</v>
+        <v>1.61</v>
       </c>
       <c r="R24">
-        <v>3.6</v>
+        <v>2.33</v>
       </c>
       <c r="S24">
-        <v>1.95</v>
+        <v>2.58</v>
       </c>
       <c r="T24">
-        <v>1.89</v>
+        <v>1.44</v>
       </c>
       <c r="U24">
+        <v>2.3</v>
+      </c>
+      <c r="V24">
+        <v>1.53</v>
+      </c>
+      <c r="W24">
         <v>1.7</v>
       </c>
-      <c r="V24">
-        <v>2.1</v>
-      </c>
-      <c r="W24">
-        <v>1.42</v>
-      </c>
       <c r="X24">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="Y24">
-        <v>1.55</v>
+        <v>1.22</v>
       </c>
       <c r="Z24">
-        <v>1.44</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AA24">
-        <v>1.44</v>
+        <v>0.63</v>
       </c>
       <c r="AB24">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="AC24">
-        <v>1.25</v>
+        <v>0.99</v>
       </c>
       <c r="AD24">
-        <v>2.59</v>
+        <v>2.35</v>
       </c>
       <c r="AE24">
-        <v>1.9</v>
+        <v>2.34</v>
       </c>
       <c r="AF24">
-        <v>8.699999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="AG24">
-        <v>2.21</v>
+        <v>1.87</v>
       </c>
       <c r="AH24">
-        <v>1.29</v>
+        <v>1.56</v>
       </c>
       <c r="AI24">
-        <v>3.14</v>
+        <v>2.27</v>
       </c>
       <c r="AJ24">
-        <v>1.56</v>
+        <v>2.01</v>
       </c>
       <c r="AK24">
-        <v>2.27</v>
+        <v>1.75</v>
       </c>
       <c r="AL24">
-        <v>1.97</v>
+        <v>2.69</v>
       </c>
       <c r="AM24">
-        <v>1.78</v>
+        <v>1.41</v>
       </c>
       <c r="AN24">
-        <v>2.57</v>
+        <v>3.74</v>
       </c>
       <c r="AO24">
-        <v>1.44</v>
+        <v>1.21</v>
       </c>
       <c r="AP24">
-        <v>3.48</v>
+        <v>5.5</v>
       </c>
       <c r="AQ24">
-        <v>1.24</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="25" spans="1:43">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B25" s="2">
         <v>45405</v>
@@ -3938,13 +3938,13 @@
         <v>3.9</v>
       </c>
       <c r="J25">
-        <v>2.15</v>
+        <v>2.02</v>
       </c>
       <c r="K25">
-        <v>3.2</v>
+        <v>3.44</v>
       </c>
       <c r="L25">
-        <v>3.15</v>
+        <v>3.76</v>
       </c>
       <c r="M25">
         <v>1.45</v>
@@ -3965,10 +3965,10 @@
         <v>3.1</v>
       </c>
       <c r="S25">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="T25">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="U25">
         <v>1.85</v>
@@ -4042,7 +4042,7 @@
     </row>
     <row r="26" spans="1:43">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B26" s="2">
         <v>45405</v>
@@ -4063,31 +4063,31 @@
         <v>2.7</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="I26">
-        <v>4.33</v>
+        <v>4.96</v>
       </c>
       <c r="J26">
-        <v>2.1</v>
+        <v>2.29</v>
       </c>
       <c r="K26">
-        <v>3.1</v>
+        <v>3.16</v>
       </c>
       <c r="L26">
-        <v>3.45</v>
+        <v>3.37</v>
       </c>
       <c r="M26">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="N26">
-        <v>2.4</v>
+        <v>2.54</v>
       </c>
       <c r="O26">
         <v>1.06</v>
       </c>
       <c r="P26">
-        <v>6.75</v>
+        <v>6.85</v>
       </c>
       <c r="Q26">
         <v>1.46</v>
@@ -4096,73 +4096,73 @@
         <v>2.74</v>
       </c>
       <c r="S26">
-        <v>2.36</v>
+        <v>2.54</v>
       </c>
       <c r="T26">
         <v>1.52</v>
       </c>
       <c r="U26">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="V26">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="W26">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="X26">
-        <v>1.3</v>
+        <v>1.35</v>
       </c>
       <c r="Y26">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="Z26">
-        <v>0.9399999999999999</v>
+        <v>1.31</v>
       </c>
       <c r="AA26">
-        <v>1.31</v>
+        <v>1.19</v>
       </c>
       <c r="AB26">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AC26">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="AD26">
-        <v>2.93</v>
+        <v>2.89</v>
       </c>
       <c r="AE26">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="AF26">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="AG26">
-        <v>2.68</v>
+        <v>2.71</v>
       </c>
       <c r="AH26">
         <v>1.28</v>
       </c>
       <c r="AI26">
-        <v>3.18</v>
+        <v>3.2</v>
       </c>
       <c r="AJ26">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="AK26">
-        <v>2.29</v>
+        <v>2.32</v>
       </c>
       <c r="AL26">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="AM26">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="AN26">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="AO26">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="AP26">
         <v>3.42</v>
@@ -4173,7 +4173,7 @@
     </row>
     <row r="27" spans="1:43">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B27" s="2">
         <v>45405</v>
@@ -4191,120 +4191,120 @@
         <v>121</v>
       </c>
       <c r="G27">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="I27">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J27">
-        <v>2.53</v>
+        <v>2.44</v>
       </c>
       <c r="K27">
-        <v>3.2</v>
+        <v>3.44</v>
       </c>
       <c r="L27">
-        <v>2.67</v>
+        <v>2.85</v>
       </c>
       <c r="M27">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="N27">
-        <v>2.65</v>
+        <v>2.8</v>
       </c>
       <c r="O27">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="P27">
-        <v>8.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Q27">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="R27">
-        <v>3.34</v>
+        <v>3.6</v>
       </c>
       <c r="S27">
-        <v>2.06</v>
+        <v>1.93</v>
       </c>
       <c r="T27">
-        <v>1.78</v>
+        <v>1.88</v>
       </c>
       <c r="U27">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="V27">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="W27">
         <v>1.42</v>
       </c>
       <c r="X27">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="Y27">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="Z27">
-        <v>1.88</v>
+        <v>1.44</v>
       </c>
       <c r="AA27">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AB27">
-        <v>1.64</v>
+        <v>1.34</v>
       </c>
       <c r="AC27">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AD27">
-        <v>2.96</v>
+        <v>2.59</v>
       </c>
       <c r="AE27">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="AF27">
-        <v>9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AG27">
-        <v>2.39</v>
+        <v>2.21</v>
       </c>
       <c r="AH27">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="AI27">
-        <v>3.42</v>
+        <v>3.14</v>
       </c>
       <c r="AJ27">
-        <v>1.49</v>
+        <v>1.56</v>
       </c>
       <c r="AK27">
-        <v>2.44</v>
+        <v>2.27</v>
       </c>
       <c r="AL27">
-        <v>1.86</v>
+        <v>1.97</v>
       </c>
       <c r="AM27">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AN27">
-        <v>2.39</v>
+        <v>2.57</v>
       </c>
       <c r="AO27">
-        <v>1.51</v>
+        <v>1.44</v>
       </c>
       <c r="AP27">
-        <v>3.2</v>
+        <v>3.48</v>
       </c>
       <c r="AQ27">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="28" spans="1:43">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B28" s="2">
         <v>45405</v>
@@ -4322,120 +4322,120 @@
         <v>122</v>
       </c>
       <c r="G28">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="H28">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="I28">
-        <v>2.88</v>
+        <v>4.33</v>
       </c>
       <c r="J28">
-        <v>3.9</v>
+        <v>2.16</v>
       </c>
       <c r="K28">
-        <v>2.91</v>
+        <v>3.22</v>
       </c>
       <c r="L28">
-        <v>2.04</v>
+        <v>3.6</v>
       </c>
       <c r="M28">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="N28">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="O28">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="P28">
-        <v>5.93</v>
+        <v>6.75</v>
       </c>
       <c r="Q28">
-        <v>1.57</v>
+        <v>1.46</v>
       </c>
       <c r="R28">
-        <v>2.15</v>
+        <v>2.74</v>
       </c>
       <c r="S28">
-        <v>2.8</v>
+        <v>2.44</v>
       </c>
       <c r="T28">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="U28">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="V28">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="W28">
-        <v>1.7</v>
+        <v>1.28</v>
       </c>
       <c r="X28">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="Y28">
-        <v>1.22</v>
+        <v>1.67</v>
       </c>
       <c r="Z28">
-        <v>0.5600000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AA28">
-        <v>0.63</v>
+        <v>1.31</v>
       </c>
       <c r="AB28">
-        <v>1.36</v>
+        <v>1.67</v>
       </c>
       <c r="AC28">
-        <v>0.99</v>
+        <v>1.26</v>
       </c>
       <c r="AD28">
-        <v>2.35</v>
+        <v>2.93</v>
       </c>
       <c r="AE28">
-        <v>2.34</v>
+        <v>1.67</v>
       </c>
       <c r="AF28">
-        <v>8.1</v>
+        <v>8.9</v>
       </c>
       <c r="AG28">
-        <v>1.87</v>
+        <v>2.68</v>
       </c>
       <c r="AH28">
-        <v>1.56</v>
+        <v>1.28</v>
       </c>
       <c r="AI28">
-        <v>2.27</v>
+        <v>3.18</v>
       </c>
       <c r="AJ28">
-        <v>2.01</v>
+        <v>1.55</v>
       </c>
       <c r="AK28">
-        <v>1.75</v>
+        <v>2.29</v>
       </c>
       <c r="AL28">
-        <v>2.69</v>
+        <v>1.96</v>
       </c>
       <c r="AM28">
-        <v>1.41</v>
+        <v>1.79</v>
       </c>
       <c r="AN28">
-        <v>3.74</v>
+        <v>2.55</v>
       </c>
       <c r="AO28">
-        <v>1.21</v>
+        <v>1.45</v>
       </c>
       <c r="AP28">
-        <v>5.5</v>
+        <v>3.42</v>
       </c>
       <c r="AQ28">
-        <v>1.1</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="29" spans="1:43">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B29" s="2">
         <v>45405</v>
@@ -4453,46 +4453,46 @@
         <v>123</v>
       </c>
       <c r="G29">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="H29">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="I29">
-        <v>2.55</v>
+        <v>3.35</v>
       </c>
       <c r="J29">
-        <v>3.45</v>
+        <v>2.52</v>
       </c>
       <c r="K29">
-        <v>3.45</v>
+        <v>3.28</v>
       </c>
       <c r="L29">
-        <v>2</v>
+        <v>2.84</v>
       </c>
       <c r="M29">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="N29">
-        <v>3.05</v>
+        <v>2.65</v>
       </c>
       <c r="O29">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="P29">
-        <v>9.1</v>
+        <v>8.1</v>
       </c>
       <c r="Q29">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="R29">
-        <v>3.58</v>
+        <v>3.34</v>
       </c>
       <c r="S29">
-        <v>1.96</v>
+        <v>2.03</v>
       </c>
       <c r="T29">
-        <v>1.88</v>
+        <v>1.79</v>
       </c>
       <c r="U29">
         <v>1.73</v>
@@ -4501,72 +4501,72 @@
         <v>1.95</v>
       </c>
       <c r="W29">
+        <v>1.42</v>
+      </c>
+      <c r="X29">
+        <v>1.28</v>
+      </c>
+      <c r="Y29">
+        <v>1.5</v>
+      </c>
+      <c r="Z29">
+        <v>1.88</v>
+      </c>
+      <c r="AA29">
+        <v>1.5</v>
+      </c>
+      <c r="AB29">
+        <v>1.64</v>
+      </c>
+      <c r="AC29">
+        <v>1.32</v>
+      </c>
+      <c r="AD29">
+        <v>2.96</v>
+      </c>
+      <c r="AE29">
         <v>1.8</v>
       </c>
-      <c r="X29">
-        <v>1.3</v>
-      </c>
-      <c r="Y29">
+      <c r="AF29">
+        <v>9</v>
+      </c>
+      <c r="AG29">
+        <v>2.39</v>
+      </c>
+      <c r="AH29">
+        <v>1.25</v>
+      </c>
+      <c r="AI29">
+        <v>3.42</v>
+      </c>
+      <c r="AJ29">
+        <v>1.49</v>
+      </c>
+      <c r="AK29">
+        <v>2.44</v>
+      </c>
+      <c r="AL29">
+        <v>1.86</v>
+      </c>
+      <c r="AM29">
+        <v>1.88</v>
+      </c>
+      <c r="AN29">
+        <v>2.39</v>
+      </c>
+      <c r="AO29">
+        <v>1.51</v>
+      </c>
+      <c r="AP29">
+        <v>3.2</v>
+      </c>
+      <c r="AQ29">
         <v>1.28</v>
-      </c>
-      <c r="Z29">
-        <v>1.56</v>
-      </c>
-      <c r="AA29">
-        <v>1.69</v>
-      </c>
-      <c r="AB29">
-        <v>1.51</v>
-      </c>
-      <c r="AC29">
-        <v>1.43</v>
-      </c>
-      <c r="AD29">
-        <v>2.94</v>
-      </c>
-      <c r="AE29">
-        <v>2.18</v>
-      </c>
-      <c r="AF29">
-        <v>8.6</v>
-      </c>
-      <c r="AG29">
-        <v>1.93</v>
-      </c>
-      <c r="AH29">
-        <v>1.31</v>
-      </c>
-      <c r="AI29">
-        <v>3.04</v>
-      </c>
-      <c r="AJ29">
-        <v>1.59</v>
-      </c>
-      <c r="AK29">
-        <v>2.21</v>
-      </c>
-      <c r="AL29">
-        <v>2.02</v>
-      </c>
-      <c r="AM29">
-        <v>1.74</v>
-      </c>
-      <c r="AN29">
-        <v>2.65</v>
-      </c>
-      <c r="AO29">
-        <v>1.42</v>
-      </c>
-      <c r="AP29">
-        <v>3.65</v>
-      </c>
-      <c r="AQ29">
-        <v>1.22</v>
       </c>
     </row>
     <row r="30" spans="1:43">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B30" s="2">
         <v>45405</v>
@@ -4584,115 +4584,115 @@
         <v>124</v>
       </c>
       <c r="G30">
-        <v>2.7</v>
+        <v>4.1</v>
       </c>
       <c r="H30">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="I30">
-        <v>4.96</v>
+        <v>2.55</v>
       </c>
       <c r="J30">
-        <v>2</v>
+        <v>3.36</v>
       </c>
       <c r="K30">
-        <v>3.15</v>
+        <v>3.48</v>
       </c>
       <c r="L30">
-        <v>3.7</v>
+        <v>2.14</v>
       </c>
       <c r="M30">
-        <v>1.52</v>
+        <v>1.38</v>
       </c>
       <c r="N30">
-        <v>2.54</v>
+        <v>3.05</v>
       </c>
       <c r="O30">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="P30">
-        <v>6.85</v>
+        <v>9.1</v>
       </c>
       <c r="Q30">
-        <v>1.46</v>
+        <v>1.29</v>
       </c>
       <c r="R30">
-        <v>2.74</v>
+        <v>3.58</v>
       </c>
       <c r="S30">
-        <v>2.4</v>
+        <v>1.96</v>
       </c>
       <c r="T30">
+        <v>1.85</v>
+      </c>
+      <c r="U30">
+        <v>1.73</v>
+      </c>
+      <c r="V30">
+        <v>1.95</v>
+      </c>
+      <c r="W30">
+        <v>1.8</v>
+      </c>
+      <c r="X30">
+        <v>1.3</v>
+      </c>
+      <c r="Y30">
+        <v>1.28</v>
+      </c>
+      <c r="Z30">
+        <v>1.56</v>
+      </c>
+      <c r="AA30">
+        <v>1.69</v>
+      </c>
+      <c r="AB30">
         <v>1.51</v>
       </c>
-      <c r="U30">
-        <v>2.14</v>
-      </c>
-      <c r="V30">
-        <v>1.71</v>
-      </c>
-      <c r="W30">
-        <v>1.24</v>
-      </c>
-      <c r="X30">
-        <v>1.35</v>
-      </c>
-      <c r="Y30">
-        <v>1.83</v>
-      </c>
-      <c r="Z30">
+      <c r="AC30">
+        <v>1.43</v>
+      </c>
+      <c r="AD30">
+        <v>2.94</v>
+      </c>
+      <c r="AE30">
+        <v>2.18</v>
+      </c>
+      <c r="AF30">
+        <v>8.6</v>
+      </c>
+      <c r="AG30">
+        <v>1.93</v>
+      </c>
+      <c r="AH30">
         <v>1.31</v>
       </c>
-      <c r="AA30">
-        <v>1.19</v>
-      </c>
-      <c r="AB30">
-        <v>1.56</v>
-      </c>
-      <c r="AC30">
-        <v>1.33</v>
-      </c>
-      <c r="AD30">
-        <v>2.89</v>
-      </c>
-      <c r="AE30">
-        <v>1.65</v>
-      </c>
-      <c r="AF30">
-        <v>9</v>
-      </c>
-      <c r="AG30">
-        <v>2.71</v>
-      </c>
-      <c r="AH30">
-        <v>1.28</v>
-      </c>
       <c r="AI30">
-        <v>3.2</v>
+        <v>3.04</v>
       </c>
       <c r="AJ30">
-        <v>1.54</v>
+        <v>1.59</v>
       </c>
       <c r="AK30">
-        <v>2.32</v>
+        <v>2.21</v>
       </c>
       <c r="AL30">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="AM30">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="AN30">
-        <v>2.52</v>
+        <v>2.65</v>
       </c>
       <c r="AO30">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="AP30">
-        <v>3.42</v>
+        <v>3.65</v>
       </c>
       <c r="AQ30">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="31" spans="1:43">
@@ -4724,13 +4724,13 @@
         <v>3.5</v>
       </c>
       <c r="J31">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="K31">
-        <v>3.6</v>
+        <v>3.94</v>
       </c>
       <c r="L31">
-        <v>3.1</v>
+        <v>3.18</v>
       </c>
       <c r="M31">
         <v>1.22</v>
@@ -4855,10 +4855,10 @@
         <v>5</v>
       </c>
       <c r="J32">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="K32">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="L32">
         <v>5.5</v>
@@ -4977,7 +4977,7 @@
         <v>127</v>
       </c>
       <c r="G33">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H33">
         <v>1.95</v>
@@ -4986,10 +4986,10 @@
         <v>3.6</v>
       </c>
       <c r="J33">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="K33">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="L33">
         <v>2.8</v>
@@ -5049,13 +5049,13 @@
         <v>0</v>
       </c>
       <c r="AE33">
-        <v>1.74</v>
+        <v>1.95</v>
       </c>
       <c r="AF33">
-        <v>8.9</v>
+        <v>7.6</v>
       </c>
       <c r="AG33">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="AH33">
         <v>1.21</v>
